--- a/Q5/model_results_추가2.xlsx
+++ b/Q5/model_results_추가2.xlsx
@@ -1,18 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BOK\Desktop\papers\prism\R&amp;R\code\Q5\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D563CC2-6C4A-488D-B196-063FD4EFBFD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="pred_GDP_now" sheetId="1" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId6"/>
+    <sheet name="pred_GDP_now" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -34,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>GDP(SA) True</t>
   </si>
@@ -80,33 +103,25 @@
   <si>
     <t>OptimARIMA</t>
   </si>
-  <si>
-    <t>.</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="59" formatCode="0.00000"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="맑은 고딕"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
+      <sz val="8"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="5">
@@ -135,7 +150,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -218,108 +233,115 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+  <cellXfs count="17">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffc9daf8"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffefefef"/>
-      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFC9DAF8"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FFEFEFEF"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office 테마">
       <a:dk1>
@@ -445,7 +467,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -454,7 +476,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -463,7 +485,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -537,7 +559,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -545,7 +567,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -563,7 +585,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -592,7 +614,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -617,7 +639,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -642,7 +664,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -667,7 +689,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -692,7 +714,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -717,7 +739,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -742,7 +764,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -767,7 +789,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -792,7 +814,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -805,9 +827,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -822,7 +850,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="38000"/>
             </a:srgbClr>
@@ -830,7 +858,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -848,7 +876,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -873,7 +901,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -898,7 +926,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -923,7 +951,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -948,7 +976,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -973,7 +1001,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -998,7 +1026,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1023,7 +1051,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1048,7 +1076,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1073,7 +1101,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1086,9 +1114,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1102,7 +1136,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1120,7 +1154,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1149,7 +1183,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1174,7 +1208,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1199,7 +1233,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1224,7 +1258,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1249,7 +1283,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1274,7 +1308,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1299,7 +1333,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1324,7 +1358,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1349,7 +1383,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1362,73 +1396,82 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Z71"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Z70"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="M70" sqref="M70"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="26" width="12.6016" style="1" customWidth="1"/>
-    <col min="27" max="16384" width="12.6016" style="1" customWidth="1"/>
+    <col min="1" max="27" width="12.5546875" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="12.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" customHeight="1">
+    <row r="1" spans="1:26" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2"/>
-      <c r="B1" t="s" s="3">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s" s="4">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s" s="5">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s" s="5">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s" s="5">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s" s="5">
+      <c r="G1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s" s="5">
+      <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s" s="5">
+      <c r="I1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s" s="5">
+      <c r="J1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s" s="5">
+      <c r="K1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s" s="5">
+      <c r="L1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s" s="5">
+      <c r="M1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s" s="5">
+      <c r="N1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s" s="5">
+      <c r="O1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s" s="5">
+      <c r="P1" s="5" t="s">
         <v>14</v>
       </c>
       <c r="Q1" s="6"/>
@@ -1442,7 +1485,7 @@
       <c r="Y1" s="6"/>
       <c r="Z1" s="6"/>
     </row>
-    <row r="2" ht="15.6" customHeight="1">
+    <row r="2" spans="1:26" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7">
         <v>39142</v>
       </c>
@@ -1466,13 +1509,13 @@
       </c>
       <c r="L2" s="6"/>
       <c r="M2" s="10">
-        <v>1.38053391186642</v>
+        <v>1.3805339118664199</v>
       </c>
       <c r="N2" s="10">
-        <v>1.30030655860901</v>
+        <v>1.3003065586090099</v>
       </c>
       <c r="O2" s="10">
-        <v>1.10199136574122</v>
+        <v>1.1019913657412199</v>
       </c>
       <c r="P2" s="10">
         <v>3.18772810423871</v>
@@ -1488,7 +1531,7 @@
       <c r="Y2" s="6"/>
       <c r="Z2" s="6"/>
     </row>
-    <row r="3" ht="15.6" customHeight="1">
+    <row r="3" spans="1:26" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7">
         <v>39234</v>
       </c>
@@ -1497,7 +1540,7 @@
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="10">
-        <v>1.41012256605837</v>
+        <v>1.4101225660583701</v>
       </c>
       <c r="E3" s="10">
         <v>1.10731096588754</v>
@@ -1508,7 +1551,7 @@
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
       <c r="K3" s="10">
-        <v>1.30368662949177</v>
+        <v>1.3036866294917699</v>
       </c>
       <c r="L3" s="6"/>
       <c r="M3" s="10">
@@ -1518,7 +1561,7 @@
         <v>1.34529149532318</v>
       </c>
       <c r="O3" s="10">
-        <v>0.745395140698245</v>
+        <v>0.74539514069824497</v>
       </c>
       <c r="P3" s="10">
         <v>1.52310061250387</v>
@@ -1534,7 +1577,7 @@
       <c r="Y3" s="6"/>
       <c r="Z3" s="6"/>
     </row>
-    <row r="4" ht="15.6" customHeight="1">
+    <row r="4" spans="1:26" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7">
         <v>39326</v>
       </c>
@@ -1543,10 +1586,10 @@
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="10">
-        <v>1.18665273492038</v>
+        <v>1.1866527349203799</v>
       </c>
       <c r="E4" s="10">
-        <v>1.14382839195777</v>
+        <v>1.1438283919577701</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -1564,7 +1607,7 @@
         <v>1.38642477989197</v>
       </c>
       <c r="O4" s="10">
-        <v>0.95089590389865</v>
+        <v>0.95089590389864997</v>
       </c>
       <c r="P4" s="10">
         <v>1.09815840238468</v>
@@ -1580,7 +1623,7 @@
       <c r="Y4" s="6"/>
       <c r="Z4" s="6"/>
     </row>
-    <row r="5" ht="15.6" customHeight="1">
+    <row r="5" spans="1:26" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7">
         <v>39417</v>
       </c>
@@ -1589,10 +1632,10 @@
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="10">
-        <v>1.01767574755716</v>
+        <v>1.0176757475571601</v>
       </c>
       <c r="E5" s="10">
-        <v>0.928408860129615</v>
+        <v>0.92840886012961499</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
@@ -1604,13 +1647,13 @@
       </c>
       <c r="L5" s="6"/>
       <c r="M5" s="10">
-        <v>1.04846439655245</v>
+        <v>1.0484643965524501</v>
       </c>
       <c r="N5" s="10">
-        <v>1.36448192596436</v>
+        <v>1.3644819259643599</v>
       </c>
       <c r="O5" s="10">
-        <v>2.59421742910142</v>
+        <v>2.5942174291014202</v>
       </c>
       <c r="P5" s="10">
         <v>1.44545012583067</v>
@@ -1626,7 +1669,7 @@
       <c r="Y5" s="6"/>
       <c r="Z5" s="6"/>
     </row>
-    <row r="6" ht="15.6" customHeight="1">
+    <row r="6" spans="1:26" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7">
         <v>39508</v>
       </c>
@@ -1650,10 +1693,10 @@
       </c>
       <c r="L6" s="6"/>
       <c r="M6" s="10">
-        <v>1.55640300790672</v>
+        <v>1.5564030079067199</v>
       </c>
       <c r="N6" s="10">
-        <v>1.44449388980866</v>
+        <v>1.4444938898086599</v>
       </c>
       <c r="O6" s="10">
         <v>1.19610491223947</v>
@@ -1672,7 +1715,7 @@
       <c r="Y6" s="6"/>
       <c r="Z6" s="6"/>
     </row>
-    <row r="7" ht="15.6" customHeight="1">
+    <row r="7" spans="1:26" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7">
         <v>39600</v>
       </c>
@@ -1681,10 +1724,10 @@
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="10">
-        <v>0.648689509597133</v>
+        <v>0.64868950959713301</v>
       </c>
       <c r="E7" s="10">
-        <v>0.695569617927738</v>
+        <v>0.69556961792773797</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
@@ -1696,13 +1739,13 @@
       </c>
       <c r="L7" s="6"/>
       <c r="M7" s="10">
-        <v>0.820493236637133</v>
+        <v>0.82049323663713303</v>
       </c>
       <c r="N7" s="10">
         <v>1.36721467971802</v>
       </c>
       <c r="O7" s="10">
-        <v>1.41132698445071</v>
+        <v>1.4113269844507099</v>
       </c>
       <c r="P7" s="10">
         <v>2.42874573375722</v>
@@ -1718,7 +1761,7 @@
       <c r="Y7" s="6"/>
       <c r="Z7" s="6"/>
     </row>
-    <row r="8" ht="15.6" customHeight="1">
+    <row r="8" spans="1:26" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7">
         <v>39692</v>
       </c>
@@ -1727,10 +1770,10 @@
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="10">
-        <v>1.13918356938019</v>
+        <v>1.1391835693801899</v>
       </c>
       <c r="E8" s="10">
-        <v>0.932740874885951</v>
+        <v>0.93274087488595103</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
@@ -1738,14 +1781,14 @@
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
       <c r="K8" s="10">
-        <v>1.02731186127273</v>
+        <v>1.0273118612727301</v>
       </c>
       <c r="L8" s="6"/>
       <c r="M8" s="10">
-        <v>1.0254845842996</v>
+        <v>1.0254845842996001</v>
       </c>
       <c r="N8" s="10">
-        <v>1.31948888301849</v>
+        <v>1.3194888830184901</v>
       </c>
       <c r="O8" s="10">
         <v>0.204281684299053</v>
@@ -1764,7 +1807,7 @@
       <c r="Y8" s="6"/>
       <c r="Z8" s="6"/>
     </row>
-    <row r="9" ht="15.6" customHeight="1">
+    <row r="9" spans="1:26" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7">
         <v>39783</v>
       </c>
@@ -1773,7 +1816,7 @@
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="10">
-        <v>1.00153238605998</v>
+        <v>1.0015323860599801</v>
       </c>
       <c r="E9" s="10">
         <v>1.40106161205491</v>
@@ -1788,16 +1831,16 @@
       </c>
       <c r="L9" s="6"/>
       <c r="M9" s="10">
-        <v>0.705416308607796</v>
+        <v>0.70541630860779603</v>
       </c>
       <c r="N9" s="10">
-        <v>1.28472101688385</v>
+        <v>1.2847210168838501</v>
       </c>
       <c r="O9" s="10">
-        <v>-4.57914049909674</v>
+        <v>-4.5791404990967397</v>
       </c>
       <c r="P9" s="10">
-        <v>-1.88147840121385</v>
+        <v>-1.8814784012138499</v>
       </c>
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
@@ -1810,7 +1853,7 @@
       <c r="Y9" s="6"/>
       <c r="Z9" s="6"/>
     </row>
-    <row r="10" ht="15.6" customHeight="1">
+    <row r="10" spans="1:26" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="7">
         <v>39873</v>
       </c>
@@ -1819,10 +1862,10 @@
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="10">
-        <v>0.813675668784875</v>
+        <v>0.81367566878487496</v>
       </c>
       <c r="E10" s="10">
-        <v>3.51506085042388</v>
+        <v>3.5150608504238798</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
@@ -1837,10 +1880,10 @@
         <v>0.364238146962025</v>
       </c>
       <c r="N10" s="10">
-        <v>0.15965162217617</v>
+        <v>0.15965162217616999</v>
       </c>
       <c r="O10" s="10">
-        <v>-0.351205197087867</v>
+        <v>-0.35120519708786702</v>
       </c>
       <c r="P10" s="10">
         <v>0.460651372040984</v>
@@ -1856,7 +1899,7 @@
       <c r="Y10" s="6"/>
       <c r="Z10" s="6"/>
     </row>
-    <row r="11" ht="15.6" customHeight="1">
+    <row r="11" spans="1:26" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="7">
         <v>39965</v>
       </c>
@@ -1865,7 +1908,7 @@
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="10">
-        <v>3.74258468320683</v>
+        <v>3.7425846832068301</v>
       </c>
       <c r="E11" s="10">
         <v>1.89062784878455</v>
@@ -1876,20 +1919,20 @@
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
       <c r="K11" s="10">
-        <v>2.4907174871256</v>
+        <v>2.4907174871255999</v>
       </c>
       <c r="L11" s="6"/>
       <c r="M11" s="10">
-        <v>1.4522384869716</v>
+        <v>1.4522384869716001</v>
       </c>
       <c r="N11" s="10">
-        <v>1.27171337604523</v>
+        <v>1.2717133760452299</v>
       </c>
       <c r="O11" s="10">
         <v>2.37905556613459</v>
       </c>
       <c r="P11" s="10">
-        <v>3.02181936117643</v>
+        <v>3.0218193611764299</v>
       </c>
       <c r="Q11" s="6"/>
       <c r="R11" s="6"/>
@@ -1902,7 +1945,7 @@
       <c r="Y11" s="6"/>
       <c r="Z11" s="6"/>
     </row>
-    <row r="12" ht="15.6" customHeight="1">
+    <row r="12" spans="1:26" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="7">
         <v>40057</v>
       </c>
@@ -1911,7 +1954,7 @@
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="10">
-        <v>3.47553811073347</v>
+        <v>3.4755381107334702</v>
       </c>
       <c r="E12" s="10">
         <v>1.90142731115159</v>
@@ -1922,17 +1965,17 @@
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
       <c r="K12" s="10">
-        <v>1.73120358971287</v>
+        <v>1.7312035897128699</v>
       </c>
       <c r="L12" s="6"/>
       <c r="M12" s="10">
-        <v>1.33940186103066</v>
+        <v>1.3394018610306599</v>
       </c>
       <c r="N12" s="10">
-        <v>1.27032780647278</v>
+        <v>1.2703278064727801</v>
       </c>
       <c r="O12" s="10">
-        <v>1.19961636171205</v>
+        <v>1.1996163617120501</v>
       </c>
       <c r="P12" s="10">
         <v>1.75688389458901</v>
@@ -1948,7 +1991,7 @@
       <c r="Y12" s="6"/>
       <c r="Z12" s="6"/>
     </row>
-    <row r="13" ht="15.6" customHeight="1">
+    <row r="13" spans="1:26" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="7">
         <v>40148</v>
       </c>
@@ -1957,10 +2000,10 @@
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="10">
-        <v>3.16728855738457</v>
+        <v>3.1672885573845702</v>
       </c>
       <c r="E13" s="10">
-        <v>3.21754710896656</v>
+        <v>3.2175471089665599</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
@@ -1978,10 +2021,10 @@
         <v>1.36756038665772</v>
       </c>
       <c r="O13" s="10">
-        <v>0.7212379880875009</v>
+        <v>0.72123798808750095</v>
       </c>
       <c r="P13" s="10">
-        <v>1.41384705210278</v>
+        <v>1.4138470521027799</v>
       </c>
       <c r="Q13" s="6"/>
       <c r="R13" s="6"/>
@@ -1994,19 +2037,19 @@
       <c r="Y13" s="6"/>
       <c r="Z13" s="6"/>
     </row>
-    <row r="14" ht="15.6" customHeight="1">
+    <row r="14" spans="1:26" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7">
         <v>40238</v>
       </c>
       <c r="B14" s="8">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="10">
-        <v>2.35881612816069</v>
+        <v>2.3588161281606901</v>
       </c>
       <c r="E14" s="10">
-        <v>1.49928424917327</v>
+        <v>1.4992842491732701</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
@@ -2024,10 +2067,10 @@
         <v>1.34926605224609</v>
       </c>
       <c r="O14" s="10">
-        <v>0.545465434928005</v>
+        <v>0.54546543492800503</v>
       </c>
       <c r="P14" s="10">
-        <v>2.05292306469323</v>
+        <v>2.0529230646932302</v>
       </c>
       <c r="Q14" s="6"/>
       <c r="R14" s="6"/>
@@ -2040,7 +2083,7 @@
       <c r="Y14" s="6"/>
       <c r="Z14" s="6"/>
     </row>
-    <row r="15" ht="15.6" customHeight="1">
+    <row r="15" spans="1:26" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="7">
         <v>40330</v>
       </c>
@@ -2049,7 +2092,7 @@
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="10">
-        <v>2.13295288013029</v>
+        <v>2.1329528801302899</v>
       </c>
       <c r="E15" s="10">
         <v>1.70690076263185</v>
@@ -2060,20 +2103,20 @@
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
       <c r="K15" s="10">
-        <v>1.54119405198128</v>
+        <v>1.5411940519812799</v>
       </c>
       <c r="L15" s="6"/>
       <c r="M15" s="10">
         <v>1.39470755825413</v>
       </c>
       <c r="N15" s="10">
-        <v>0.945492327213287</v>
+        <v>0.94549232721328702</v>
       </c>
       <c r="O15" s="10">
-        <v>2.11551036443154</v>
+        <v>2.1155103644315401</v>
       </c>
       <c r="P15" s="10">
-        <v>2.17221209273386</v>
+        <v>2.1722120927338602</v>
       </c>
       <c r="Q15" s="6"/>
       <c r="R15" s="6"/>
@@ -2086,7 +2129,7 @@
       <c r="Y15" s="6"/>
       <c r="Z15" s="6"/>
     </row>
-    <row r="16" ht="15.6" customHeight="1">
+    <row r="16" spans="1:26" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="7">
         <v>40422</v>
       </c>
@@ -2095,10 +2138,10 @@
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="10">
-        <v>1.3204276615836</v>
+        <v>1.3204276615835999</v>
       </c>
       <c r="E16" s="10">
-        <v>1.31834017844863</v>
+        <v>1.3183401784486299</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
@@ -2113,13 +2156,13 @@
         <v>1.48332186690792</v>
       </c>
       <c r="N16" s="10">
-        <v>1.52104461193085</v>
+        <v>1.5210446119308501</v>
       </c>
       <c r="O16" s="10">
-        <v>0.32820360341676</v>
+        <v>0.32820360341676003</v>
       </c>
       <c r="P16" s="10">
-        <v>0.492219416340937</v>
+        <v>0.49221941634093702</v>
       </c>
       <c r="Q16" s="6"/>
       <c r="R16" s="6"/>
@@ -2132,7 +2175,7 @@
       <c r="Y16" s="6"/>
       <c r="Z16" s="6"/>
     </row>
-    <row r="17" ht="15.6" customHeight="1">
+    <row r="17" spans="1:26" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="7">
         <v>40513</v>
       </c>
@@ -2156,10 +2199,10 @@
       </c>
       <c r="L17" s="6"/>
       <c r="M17" s="10">
-        <v>1.32431215766725</v>
+        <v>1.3243121576672501</v>
       </c>
       <c r="N17" s="10">
-        <v>1.25581359863281</v>
+        <v>1.2558135986328101</v>
       </c>
       <c r="O17" s="10">
         <v>1.51048755730707</v>
@@ -2178,7 +2221,7 @@
       <c r="Y17" s="6"/>
       <c r="Z17" s="6"/>
     </row>
-    <row r="18" ht="15.6" customHeight="1">
+    <row r="18" spans="1:26" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="7">
         <v>40603</v>
       </c>
@@ -2187,10 +2230,10 @@
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="10">
-        <v>1.52184873926533</v>
+        <v>1.5218487392653299</v>
       </c>
       <c r="E18" s="10">
-        <v>1.11088045935777</v>
+        <v>1.1108804593577699</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
@@ -2198,20 +2241,20 @@
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
       <c r="K18" s="10">
-        <v>1.2773260300591</v>
+        <v>1.2773260300591001</v>
       </c>
       <c r="L18" s="6"/>
       <c r="M18" s="10">
-        <v>1.79065496728191</v>
+        <v>1.7906549672819101</v>
       </c>
       <c r="N18" s="10">
-        <v>0.977918982505798</v>
+        <v>0.97791898250579801</v>
       </c>
       <c r="O18" s="10">
         <v>1.35320696258644</v>
       </c>
       <c r="P18" s="10">
-        <v>2.8285237114781</v>
+        <v>2.8285237114781001</v>
       </c>
       <c r="Q18" s="6"/>
       <c r="R18" s="6"/>
@@ -2224,7 +2267,7 @@
       <c r="Y18" s="6"/>
       <c r="Z18" s="6"/>
     </row>
-    <row r="19" ht="15.6" customHeight="1">
+    <row r="19" spans="1:26" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="7">
         <v>40695</v>
       </c>
@@ -2233,10 +2276,10 @@
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="10">
-        <v>1.11076048982053</v>
+        <v>1.1107604898205301</v>
       </c>
       <c r="E19" s="10">
-        <v>0.840219405865383</v>
+        <v>0.84021940586538302</v>
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
@@ -2251,10 +2294,10 @@
         <v>1.09112361526294</v>
       </c>
       <c r="N19" s="10">
-        <v>0.969341993331909</v>
+        <v>0.96934199333190896</v>
       </c>
       <c r="O19" s="10">
-        <v>0.226005060465835</v>
+        <v>0.22600506046583499</v>
       </c>
       <c r="P19" s="10">
         <v>1.91370554300786</v>
@@ -2270,7 +2313,7 @@
       <c r="Y19" s="6"/>
       <c r="Z19" s="6"/>
     </row>
-    <row r="20" ht="15.6" customHeight="1">
+    <row r="20" spans="1:26" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="7">
         <v>40787</v>
       </c>
@@ -2279,10 +2322,10 @@
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="10">
-        <v>1.14756033018146</v>
+        <v>1.1475603301814601</v>
       </c>
       <c r="E20" s="10">
-        <v>1.08490617047554</v>
+        <v>1.0849061704755401</v>
       </c>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
@@ -2294,16 +2337,16 @@
       </c>
       <c r="L20" s="6"/>
       <c r="M20" s="10">
-        <v>0.900949360716118</v>
+        <v>0.90094936071611798</v>
       </c>
       <c r="N20" s="10">
-        <v>0.867336273193359</v>
+        <v>0.86733627319335904</v>
       </c>
       <c r="O20" s="10">
-        <v>0.391022099481235</v>
+        <v>0.39102209948123501</v>
       </c>
       <c r="P20" s="10">
-        <v>1.1442332745003</v>
+        <v>1.1442332745003001</v>
       </c>
       <c r="Q20" s="6"/>
       <c r="R20" s="6"/>
@@ -2316,7 +2359,7 @@
       <c r="Y20" s="6"/>
       <c r="Z20" s="6"/>
     </row>
-    <row r="21" ht="15.6" customHeight="1">
+    <row r="21" spans="1:26" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="7">
         <v>40878</v>
       </c>
@@ -2328,7 +2371,7 @@
         <v>1.05471969393758</v>
       </c>
       <c r="E21" s="10">
-        <v>1.01907131000036</v>
+        <v>1.0190713100003601</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
@@ -2336,20 +2379,20 @@
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
       <c r="K21" s="10">
-        <v>0.299701118373928</v>
+        <v>0.29970111837392799</v>
       </c>
       <c r="L21" s="6"/>
       <c r="M21" s="10">
-        <v>0.992848933321429</v>
+        <v>0.99284893332142898</v>
       </c>
       <c r="N21" s="10">
-        <v>0.978096187114716</v>
+        <v>0.97809618711471602</v>
       </c>
       <c r="O21" s="10">
-        <v>-0.0321882990547879</v>
+        <v>-3.21882990547879E-2</v>
       </c>
       <c r="P21" s="10">
-        <v>0.0450775969471841</v>
+        <v>4.50775969471841E-2</v>
       </c>
       <c r="Q21" s="6"/>
       <c r="R21" s="6"/>
@@ -2362,7 +2405,7 @@
       <c r="Y21" s="6"/>
       <c r="Z21" s="6"/>
     </row>
-    <row r="22" ht="15.6" customHeight="1">
+    <row r="22" spans="1:26" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="7">
         <v>40969</v>
       </c>
@@ -2382,20 +2425,20 @@
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
       <c r="K22" s="10">
-        <v>1.79715920866494</v>
+        <v>1.7971592086649399</v>
       </c>
       <c r="L22" s="6"/>
       <c r="M22" s="10">
-        <v>0.681727864357258</v>
+        <v>0.68172786435725796</v>
       </c>
       <c r="N22" s="10">
-        <v>0.624955236911774</v>
+        <v>0.62495523691177401</v>
       </c>
       <c r="O22" s="10">
-        <v>0.504507951425504</v>
+        <v>0.50450795142550398</v>
       </c>
       <c r="P22" s="10">
-        <v>0.900443411358795</v>
+        <v>0.90044341135879502</v>
       </c>
       <c r="Q22" s="6"/>
       <c r="R22" s="6"/>
@@ -2408,7 +2451,7 @@
       <c r="Y22" s="6"/>
       <c r="Z22" s="6"/>
     </row>
-    <row r="23" ht="15.6" customHeight="1">
+    <row r="23" spans="1:26" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="7">
         <v>41061</v>
       </c>
@@ -2417,10 +2460,10 @@
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="10">
-        <v>1.32151732756185</v>
+        <v>1.3215173275618499</v>
       </c>
       <c r="E23" s="10">
-        <v>1.17643909536334</v>
+        <v>1.1764390953633399</v>
       </c>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
@@ -2428,20 +2471,20 @@
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
       <c r="K23" s="10">
-        <v>0.75956041822899</v>
+        <v>0.75956041822899001</v>
       </c>
       <c r="L23" s="6"/>
       <c r="M23" s="10">
-        <v>0.509558036121036</v>
+        <v>0.50955803612103601</v>
       </c>
       <c r="N23" s="10">
-        <v>0.642894744873047</v>
+        <v>0.64289474487304699</v>
       </c>
       <c r="O23" s="10">
-        <v>0.0300336945883233</v>
+        <v>3.0033694588323299E-2</v>
       </c>
       <c r="P23" s="10">
-        <v>-0.0290398885146064</v>
+        <v>-2.9039888514606399E-2</v>
       </c>
       <c r="Q23" s="6"/>
       <c r="R23" s="6"/>
@@ -2454,7 +2497,7 @@
       <c r="Y23" s="6"/>
       <c r="Z23" s="6"/>
     </row>
-    <row r="24" ht="15.6" customHeight="1">
+    <row r="24" spans="1:26" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="7">
         <v>41153</v>
       </c>
@@ -2463,10 +2506,10 @@
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="10">
-        <v>1.00298291017662</v>
+        <v>1.0029829101766199</v>
       </c>
       <c r="E24" s="10">
-        <v>1.15850451235957</v>
+        <v>1.1585045123595701</v>
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
@@ -2481,13 +2524,13 @@
         <v>0.671068512780846</v>
       </c>
       <c r="N24" s="10">
-        <v>0.636198043823242</v>
+        <v>0.63619804382324197</v>
       </c>
       <c r="O24" s="10">
         <v>-0.138502433414881</v>
       </c>
       <c r="P24" s="10">
-        <v>0.319806988691293</v>
+        <v>0.31980698869129298</v>
       </c>
       <c r="Q24" s="6"/>
       <c r="R24" s="6"/>
@@ -2500,7 +2543,7 @@
       <c r="Y24" s="6"/>
       <c r="Z24" s="6"/>
     </row>
-    <row r="25" ht="15.6" customHeight="1">
+    <row r="25" spans="1:26" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="7">
         <v>41244</v>
       </c>
@@ -2509,10 +2552,10 @@
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="10">
-        <v>1.57218054540032</v>
+        <v>1.5721805454003199</v>
       </c>
       <c r="E25" s="10">
-        <v>1.47498838708575</v>
+        <v>1.4749883870857501</v>
       </c>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
@@ -2520,20 +2563,20 @@
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
       <c r="K25" s="10">
-        <v>0.823222177916442</v>
+        <v>0.82322217791644203</v>
       </c>
       <c r="L25" s="6"/>
       <c r="M25" s="10">
-        <v>0.562614116919285</v>
+        <v>0.56261411691928498</v>
       </c>
       <c r="N25" s="10">
-        <v>0.644129157066345</v>
+        <v>0.64412915706634499</v>
       </c>
       <c r="O25" s="10">
-        <v>0.403415439331238</v>
+        <v>0.40341543933123802</v>
       </c>
       <c r="P25" s="10">
-        <v>0.793207475416591</v>
+        <v>0.79320747541659098</v>
       </c>
       <c r="Q25" s="6"/>
       <c r="R25" s="6"/>
@@ -2546,7 +2589,7 @@
       <c r="Y25" s="6"/>
       <c r="Z25" s="6"/>
     </row>
-    <row r="26" ht="15.6" customHeight="1">
+    <row r="26" spans="1:26" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="7">
         <v>41334</v>
       </c>
@@ -2558,7 +2601,7 @@
         <v>1.71553161627838</v>
       </c>
       <c r="E26" s="10">
-        <v>1.15765533147982</v>
+        <v>1.1576553314798199</v>
       </c>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
@@ -2566,7 +2609,7 @@
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
       <c r="K26" s="10">
-        <v>0.890417970943943</v>
+        <v>0.89041797094394304</v>
       </c>
       <c r="L26" s="6"/>
       <c r="M26" s="10">
@@ -2579,7 +2622,7 @@
         <v>0.534048550993798</v>
       </c>
       <c r="P26" s="10">
-        <v>0.970847402651986</v>
+        <v>0.97084740265198599</v>
       </c>
       <c r="Q26" s="6"/>
       <c r="R26" s="6"/>
@@ -2592,19 +2635,19 @@
       <c r="Y26" s="6"/>
       <c r="Z26" s="6"/>
     </row>
-    <row r="27" ht="15.6" customHeight="1">
+    <row r="27" spans="1:26" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="7">
         <v>41426</v>
       </c>
       <c r="B27" s="8">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="10">
-        <v>1.21202060350107</v>
+        <v>1.2120206035010701</v>
       </c>
       <c r="E27" s="10">
-        <v>1.28255663736194</v>
+        <v>1.2825566373619399</v>
       </c>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
@@ -2612,17 +2655,17 @@
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
       <c r="K27" s="10">
-        <v>0.7099799063962</v>
+        <v>0.70997990639620001</v>
       </c>
       <c r="L27" s="6"/>
       <c r="M27" s="10">
-        <v>0.751553275221841</v>
+        <v>0.75155327522184101</v>
       </c>
       <c r="N27" s="10">
         <v>1.43074238300324</v>
       </c>
       <c r="O27" s="10">
-        <v>0.174277297674816</v>
+        <v>0.17427729767481601</v>
       </c>
       <c r="P27" s="10">
         <v>0.49825798112219</v>
@@ -2638,7 +2681,7 @@
       <c r="Y27" s="6"/>
       <c r="Z27" s="6"/>
     </row>
-    <row r="28" ht="15.6" customHeight="1">
+    <row r="28" spans="1:26" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="7">
         <v>41518</v>
       </c>
@@ -2647,7 +2690,7 @@
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="10">
-        <v>1.34719610047558</v>
+        <v>1.3471961004755799</v>
       </c>
       <c r="E28" s="10">
         <v>1.51999297003957</v>
@@ -2658,11 +2701,11 @@
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
       <c r="K28" s="10">
-        <v>0.751914025748281</v>
+        <v>0.75191402574828103</v>
       </c>
       <c r="L28" s="6"/>
       <c r="M28" s="10">
-        <v>0.871728968314644</v>
+        <v>0.87172896831464397</v>
       </c>
       <c r="N28" s="10">
         <v>1.19877982139587</v>
@@ -2671,7 +2714,7 @@
         <v>-0.183815695643577</v>
       </c>
       <c r="P28" s="10">
-        <v>0.380955924853039</v>
+        <v>0.38095592485303897</v>
       </c>
       <c r="Q28" s="6"/>
       <c r="R28" s="6"/>
@@ -2684,7 +2727,7 @@
       <c r="Y28" s="6"/>
       <c r="Z28" s="6"/>
     </row>
-    <row r="29" ht="15.6" customHeight="1">
+    <row r="29" spans="1:26" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="7">
         <v>41609</v>
       </c>
@@ -2693,10 +2736,10 @@
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="10">
-        <v>1.51470712602375</v>
+        <v>1.5147071260237499</v>
       </c>
       <c r="E29" s="10">
-        <v>1.26357984996837</v>
+        <v>1.2635798499683699</v>
       </c>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
@@ -2704,7 +2747,7 @@
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
       <c r="K29" s="10">
-        <v>1.23403619341916</v>
+        <v>1.2340361934191599</v>
       </c>
       <c r="L29" s="6"/>
       <c r="M29" s="10">
@@ -2714,10 +2757,10 @@
         <v>1.18990898132324</v>
       </c>
       <c r="O29" s="10">
-        <v>0.438305570144266</v>
+        <v>0.43830557014426602</v>
       </c>
       <c r="P29" s="10">
-        <v>0.968117196175198</v>
+        <v>0.96811719617519798</v>
       </c>
       <c r="Q29" s="6"/>
       <c r="R29" s="6"/>
@@ -2730,7 +2773,7 @@
       <c r="Y29" s="6"/>
       <c r="Z29" s="6"/>
     </row>
-    <row r="30" ht="15.6" customHeight="1">
+    <row r="30" spans="1:26" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="7">
         <v>41699</v>
       </c>
@@ -2739,10 +2782,10 @@
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="10">
-        <v>1.50104981684365</v>
+        <v>1.5010498168436499</v>
       </c>
       <c r="E30" s="10">
-        <v>1.19201105116087</v>
+        <v>1.1920110511608699</v>
       </c>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
@@ -2750,20 +2793,20 @@
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
       <c r="K30" s="10">
-        <v>0.838980470830837</v>
+        <v>0.83898047083083704</v>
       </c>
       <c r="L30" s="6"/>
       <c r="M30" s="10">
-        <v>0.731559386440315</v>
+        <v>0.73155938644031504</v>
       </c>
       <c r="N30" s="10">
-        <v>0.91557914018631</v>
+        <v>0.91557914018631004</v>
       </c>
       <c r="O30" s="10">
-        <v>0.436572356019758</v>
+        <v>0.43657235601975802</v>
       </c>
       <c r="P30" s="10">
-        <v>0.684614416065264</v>
+        <v>0.68461441606526396</v>
       </c>
       <c r="Q30" s="6"/>
       <c r="R30" s="6"/>
@@ -2776,7 +2819,7 @@
       <c r="Y30" s="6"/>
       <c r="Z30" s="6"/>
     </row>
-    <row r="31" ht="15.6" customHeight="1">
+    <row r="31" spans="1:26" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="7">
         <v>41791</v>
       </c>
@@ -2796,20 +2839,20 @@
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
       <c r="K31" s="10">
-        <v>0.7414852739665601</v>
+        <v>0.74148527396656005</v>
       </c>
       <c r="L31" s="6"/>
       <c r="M31" s="10">
-        <v>0.9078149089334689</v>
+        <v>0.90781490893346894</v>
       </c>
       <c r="N31" s="10">
-        <v>0.919554054737091</v>
+        <v>0.91955405473709095</v>
       </c>
       <c r="O31" s="10">
-        <v>-0.522007072329545</v>
+        <v>-0.52200707232954502</v>
       </c>
       <c r="P31" s="10">
-        <v>0.209114108794708</v>
+        <v>0.20911410879470799</v>
       </c>
       <c r="Q31" s="6"/>
       <c r="R31" s="6"/>
@@ -2822,7 +2865,7 @@
       <c r="Y31" s="6"/>
       <c r="Z31" s="6"/>
     </row>
-    <row r="32" ht="15.6" customHeight="1">
+    <row r="32" spans="1:26" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="7">
         <v>41883</v>
       </c>
@@ -2831,10 +2874,10 @@
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="10">
-        <v>1.29526754085969</v>
+        <v>1.2952675408596901</v>
       </c>
       <c r="E32" s="10">
-        <v>1.21106200782712</v>
+        <v>1.2110620078271199</v>
       </c>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
@@ -2842,17 +2885,17 @@
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
       <c r="K32" s="10">
-        <v>0.927368107521527</v>
+        <v>0.92736810752152699</v>
       </c>
       <c r="L32" s="6"/>
       <c r="M32" s="10">
-        <v>0.703687023541347</v>
+        <v>0.70368702354134705</v>
       </c>
       <c r="N32" s="10">
-        <v>0.917912304401398</v>
+        <v>0.91791230440139804</v>
       </c>
       <c r="O32" s="10">
-        <v>0.629444967165855</v>
+        <v>0.62944496716585496</v>
       </c>
       <c r="P32" s="10">
         <v>0.750412643689782</v>
@@ -2868,7 +2911,7 @@
       <c r="Y32" s="6"/>
       <c r="Z32" s="6"/>
     </row>
-    <row r="33" ht="15.6" customHeight="1">
+    <row r="33" spans="1:26" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="7">
         <v>41974</v>
       </c>
@@ -2880,7 +2923,7 @@
         <v>0.977032914890685</v>
       </c>
       <c r="E33" s="10">
-        <v>0.985133877876088</v>
+        <v>0.98513387787608797</v>
       </c>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
@@ -2888,20 +2931,20 @@
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
       <c r="K33" s="10">
-        <v>1.23210641099397</v>
+        <v>1.2321064109939699</v>
       </c>
       <c r="L33" s="6"/>
       <c r="M33" s="10">
-        <v>0.716407192020113</v>
+        <v>0.71640719202011305</v>
       </c>
       <c r="N33" s="10">
-        <v>0.872305512428284</v>
+        <v>0.87230551242828402</v>
       </c>
       <c r="O33" s="10">
-        <v>0.00291981205174979</v>
+        <v>2.9198120517497901E-3</v>
       </c>
       <c r="P33" s="10">
-        <v>0.675902106423284</v>
+        <v>0.67590210642328397</v>
       </c>
       <c r="Q33" s="6"/>
       <c r="R33" s="6"/>
@@ -2914,7 +2957,7 @@
       <c r="Y33" s="6"/>
       <c r="Z33" s="6"/>
     </row>
-    <row r="34" ht="15.6" customHeight="1">
+    <row r="34" spans="1:26" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="7">
         <v>42064</v>
       </c>
@@ -2923,7 +2966,7 @@
       </c>
       <c r="C34" s="9"/>
       <c r="D34" s="10">
-        <v>1.36730288209979</v>
+        <v>1.3673028820997899</v>
       </c>
       <c r="E34" s="10">
         <v>1.22050462739392</v>
@@ -2934,20 +2977,20 @@
       <c r="I34" s="6"/>
       <c r="J34" s="6"/>
       <c r="K34" s="10">
-        <v>0.907429141260454</v>
+        <v>0.90742914126045404</v>
       </c>
       <c r="L34" s="6"/>
       <c r="M34" s="10">
-        <v>0.6101910626398031</v>
+        <v>0.61019106263980305</v>
       </c>
       <c r="N34" s="10">
-        <v>1.19657468795776</v>
+        <v>1.1965746879577599</v>
       </c>
       <c r="O34" s="10">
-        <v>0.481803897210713</v>
+        <v>0.48180389721071298</v>
       </c>
       <c r="P34" s="10">
-        <v>0.831607165058705</v>
+        <v>0.83160716505870502</v>
       </c>
       <c r="Q34" s="6"/>
       <c r="R34" s="6"/>
@@ -2960,7 +3003,7 @@
       <c r="Y34" s="6"/>
       <c r="Z34" s="6"/>
     </row>
-    <row r="35" ht="15.6" customHeight="1">
+    <row r="35" spans="1:26" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="7">
         <v>42156</v>
       </c>
@@ -2969,10 +3012,10 @@
       </c>
       <c r="C35" s="9"/>
       <c r="D35" s="10">
-        <v>1.06268953351201</v>
+        <v>1.0626895335120099</v>
       </c>
       <c r="E35" s="10">
-        <v>0.954334079179375</v>
+        <v>0.95433407917937496</v>
       </c>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
@@ -2980,20 +3023,20 @@
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
       <c r="K35" s="10">
-        <v>0.557772595331858</v>
+        <v>0.55777259533185797</v>
       </c>
       <c r="L35" s="6"/>
       <c r="M35" s="10">
-        <v>0.683491866678926</v>
+        <v>0.68349186667892603</v>
       </c>
       <c r="N35" s="10">
-        <v>0.682200253009796</v>
+        <v>0.68220025300979603</v>
       </c>
       <c r="O35" s="10">
-        <v>-0.246105616877567</v>
+        <v>-0.24610561687756699</v>
       </c>
       <c r="P35" s="10">
-        <v>0.367122113373013</v>
+        <v>0.36712211337301298</v>
       </c>
       <c r="Q35" s="6"/>
       <c r="R35" s="6"/>
@@ -3006,7 +3049,7 @@
       <c r="Y35" s="6"/>
       <c r="Z35" s="6"/>
     </row>
-    <row r="36" ht="15.6" customHeight="1">
+    <row r="36" spans="1:26" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="7">
         <v>42248</v>
       </c>
@@ -3026,20 +3069,20 @@
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
       <c r="K36" s="10">
-        <v>0.688820524091614</v>
+        <v>0.68882052409161398</v>
       </c>
       <c r="L36" s="6"/>
       <c r="M36" s="10">
-        <v>0.9208221407423119</v>
+        <v>0.92082214074231195</v>
       </c>
       <c r="N36" s="10">
         <v>1.176713347435</v>
       </c>
       <c r="O36" s="10">
-        <v>0.478495561457863</v>
+        <v>0.47849556145786298</v>
       </c>
       <c r="P36" s="10">
-        <v>0.566753653424536</v>
+        <v>0.56675365342453599</v>
       </c>
       <c r="Q36" s="6"/>
       <c r="R36" s="6"/>
@@ -3052,7 +3095,7 @@
       <c r="Y36" s="6"/>
       <c r="Z36" s="6"/>
     </row>
-    <row r="37" ht="15.6" customHeight="1">
+    <row r="37" spans="1:26" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="7">
         <v>42339</v>
       </c>
@@ -3061,10 +3104,10 @@
       </c>
       <c r="C37" s="9"/>
       <c r="D37" s="10">
-        <v>1.4537797970803</v>
+        <v>1.4537797970802999</v>
       </c>
       <c r="E37" s="10">
-        <v>1.32686048367763</v>
+        <v>1.3268604836776301</v>
       </c>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
@@ -3072,20 +3115,20 @@
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
       <c r="K37" s="10">
-        <v>0.805235481438132</v>
+        <v>0.80523548143813195</v>
       </c>
       <c r="L37" s="6"/>
       <c r="M37" s="10">
-        <v>1.53722044630799</v>
+        <v>1.5372204463079899</v>
       </c>
       <c r="N37" s="10">
-        <v>0.753825187683105</v>
+        <v>0.75382518768310502</v>
       </c>
       <c r="O37" s="10">
         <v>0.551633376456522</v>
       </c>
       <c r="P37" s="10">
-        <v>0.748937334907202</v>
+        <v>0.74893733490720205</v>
       </c>
       <c r="Q37" s="6"/>
       <c r="R37" s="6"/>
@@ -3098,7 +3141,7 @@
       <c r="Y37" s="6"/>
       <c r="Z37" s="6"/>
     </row>
-    <row r="38" ht="15.6" customHeight="1">
+    <row r="38" spans="1:26" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="7" cm="1">
         <f t="array" ref="A38">DATE(YEAR(A39),MONTH(A39)-3,1)</f>
         <v>42430</v>
@@ -3107,19 +3150,19 @@
         <v>0.3</v>
       </c>
       <c r="C38" s="11">
-        <v>0.09676550532790799</v>
+        <v>9.6765505327907994E-2</v>
       </c>
       <c r="D38" s="12">
-        <v>0.199137</v>
+        <v>0.19913700000000001</v>
       </c>
       <c r="E38" s="12">
-        <v>0.09311999999999999</v>
+        <v>9.3119999999999994E-2</v>
       </c>
       <c r="F38" s="12">
-        <v>0.225933</v>
+        <v>0.22593299999999999</v>
       </c>
       <c r="G38" s="12">
-        <v>0.747097</v>
+        <v>0.74709700000000001</v>
       </c>
       <c r="H38" s="12">
         <v>0.47644454369062</v>
@@ -3128,25 +3171,25 @@
         <v>0.819794793818172</v>
       </c>
       <c r="J38" s="12">
-        <v>0.798164</v>
+        <v>0.79816399999999998</v>
       </c>
       <c r="K38" s="12">
         <v>0.350113994728527</v>
       </c>
       <c r="L38" s="12">
-        <v>-0.28277946</v>
+        <v>-0.28277945999999998</v>
       </c>
       <c r="M38" s="12">
-        <v>0.536180701789956</v>
+        <v>0.53618070178995603</v>
       </c>
       <c r="N38" s="12">
-        <v>0.571596324443817</v>
+        <v>0.57159632444381703</v>
       </c>
       <c r="O38" s="12">
-        <v>0.303693</v>
+        <v>0.30369299999999999</v>
       </c>
       <c r="P38" s="12">
-        <v>0.040466</v>
+        <v>4.0466000000000002E-2</v>
       </c>
       <c r="Q38" s="12"/>
       <c r="R38" s="6"/>
@@ -3159,7 +3202,7 @@
       <c r="Y38" s="12"/>
       <c r="Z38" s="12"/>
     </row>
-    <row r="39" ht="15.6" customHeight="1">
+    <row r="39" spans="1:26" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="7" cm="1">
         <f t="array" ref="A39">DATE(YEAR(A40),MONTH(A40)-3,1)</f>
         <v>42522</v>
@@ -3168,46 +3211,46 @@
         <v>1.2</v>
       </c>
       <c r="C39" s="11">
-        <v>0.909680648130417</v>
+        <v>0.90968064813041705</v>
       </c>
       <c r="D39" s="12">
-        <v>0.892079</v>
+        <v>0.89207899999999996</v>
       </c>
       <c r="E39" s="12">
-        <v>0.84811</v>
+        <v>0.84811000000000003</v>
       </c>
       <c r="F39" s="12">
-        <v>0.891963</v>
+        <v>0.89196299999999995</v>
       </c>
       <c r="G39" s="12">
-        <v>0.351429</v>
+        <v>0.35142899999999999</v>
       </c>
       <c r="H39" s="12">
-        <v>1.0633697542365</v>
+        <v>1.0633697542364999</v>
       </c>
       <c r="I39" s="12">
-        <v>1.06864198341244</v>
+        <v>1.0686419834124401</v>
       </c>
       <c r="J39" s="12">
         <v>1.132944</v>
       </c>
       <c r="K39" s="12">
-        <v>1.05120452068879</v>
+        <v>1.0512045206887899</v>
       </c>
       <c r="L39" s="12">
-        <v>0.5818728</v>
+        <v>0.58187279999999997</v>
       </c>
       <c r="M39" s="12">
-        <v>0.772699483598483</v>
+        <v>0.77269948359848295</v>
       </c>
       <c r="N39" s="12">
-        <v>1.75421905517578</v>
+        <v>1.7542190551757799</v>
       </c>
       <c r="O39" s="12">
         <v>0.563998</v>
       </c>
       <c r="P39" s="12">
-        <v>1.266576</v>
+        <v>1.2665759999999999</v>
       </c>
       <c r="Q39" s="12"/>
       <c r="R39" s="6"/>
@@ -3220,7 +3263,7 @@
       <c r="Y39" s="12"/>
       <c r="Z39" s="12"/>
     </row>
-    <row r="40" ht="15.6" customHeight="1">
+    <row r="40" spans="1:26" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="7" cm="1">
         <f t="array" ref="A40">DATE(YEAR(A41),MONTH(A41)-3,1)</f>
         <v>42614</v>
@@ -3229,46 +3272,46 @@
         <v>0.4</v>
       </c>
       <c r="C40" s="11">
-        <v>0.550105746535696</v>
+        <v>0.55010574653569599</v>
       </c>
       <c r="D40" s="12">
-        <v>0.641954</v>
+        <v>0.64195400000000002</v>
       </c>
       <c r="E40" s="12">
-        <v>0.563895</v>
+        <v>0.56389500000000004</v>
       </c>
       <c r="F40" s="12">
-        <v>0.684774</v>
+        <v>0.68477399999999999</v>
       </c>
       <c r="G40" s="12">
-        <v>0.936626</v>
+        <v>0.93662599999999996</v>
       </c>
       <c r="H40" s="12">
-        <v>0.953511157785522</v>
+        <v>0.95351115778552198</v>
       </c>
       <c r="I40" s="12">
-        <v>0.726452072833043</v>
+        <v>0.72645207283304303</v>
       </c>
       <c r="J40" s="12">
-        <v>0.950103</v>
+        <v>0.95010300000000003</v>
       </c>
       <c r="K40" s="12">
-        <v>0.4540184642204</v>
+        <v>0.45401846422039999</v>
       </c>
       <c r="L40" s="12">
-        <v>0.6968780999999999</v>
+        <v>0.69687809999999994</v>
       </c>
       <c r="M40" s="12">
-        <v>0.863918359146062</v>
+        <v>0.86391835914606196</v>
       </c>
       <c r="N40" s="12">
-        <v>0.92820131778717</v>
+        <v>0.92820131778716997</v>
       </c>
       <c r="O40" s="12">
-        <v>0.592652</v>
+        <v>0.59265199999999996</v>
       </c>
       <c r="P40" s="12">
-        <v>0.442873</v>
+        <v>0.44287300000000002</v>
       </c>
       <c r="Q40" s="12"/>
       <c r="R40" s="6"/>
@@ -3281,7 +3324,7 @@
       <c r="Y40" s="12"/>
       <c r="Z40" s="12"/>
     </row>
-    <row r="41" ht="15.6" customHeight="1">
+    <row r="41" spans="1:26" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="7" cm="1">
         <f t="array" ref="A41">DATE(YEAR(A42),MONTH(A42)-3,1)</f>
         <v>42705</v>
@@ -3293,40 +3336,40 @@
         <v>1.13103257066387</v>
       </c>
       <c r="D41" s="12">
-        <v>0.695008</v>
+        <v>0.69500799999999996</v>
       </c>
       <c r="E41" s="12">
-        <v>0.642045</v>
+        <v>0.64204499999999998</v>
       </c>
       <c r="F41" s="12">
         <v>0.712063</v>
       </c>
       <c r="G41" s="12">
-        <v>0.575754</v>
+        <v>0.57575399999999999</v>
       </c>
       <c r="H41" s="12">
-        <v>1.0674276446148</v>
+        <v>1.0674276446148001</v>
       </c>
       <c r="I41" s="12">
-        <v>0.8729148464194399</v>
+        <v>0.87291484641943995</v>
       </c>
       <c r="J41" s="12">
-        <v>1.045621</v>
+        <v>1.0456209999999999</v>
       </c>
       <c r="K41" s="12">
         <v>1.28447570267855</v>
       </c>
       <c r="L41" s="12">
-        <v>0.96055126</v>
+        <v>0.96055126000000002</v>
       </c>
       <c r="M41" s="12">
-        <v>0.734646639771693</v>
+        <v>0.73464663977169298</v>
       </c>
       <c r="N41" s="12">
         <v>1.09948682785034</v>
       </c>
       <c r="O41" s="12">
-        <v>0.7698159999999999</v>
+        <v>0.76981599999999994</v>
       </c>
       <c r="P41" s="12">
         <v>1.336816</v>
@@ -3342,7 +3385,7 @@
       <c r="Y41" s="12"/>
       <c r="Z41" s="12"/>
     </row>
-    <row r="42" ht="15.6" customHeight="1">
+    <row r="42" spans="1:26" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="7" cm="1">
         <f t="array" ref="A42">DATE(YEAR(A43),MONTH(A43)-3,1)</f>
         <v>42795</v>
@@ -3354,40 +3397,40 @@
         <v>1.07711623584131</v>
       </c>
       <c r="D42" s="12">
-        <v>1.119916</v>
+        <v>1.1199159999999999</v>
       </c>
       <c r="E42" s="12">
-        <v>1.097867</v>
+        <v>1.0978669999999999</v>
       </c>
       <c r="F42" s="12">
-        <v>1.054444</v>
+        <v>1.0544439999999999</v>
       </c>
       <c r="G42" s="12">
-        <v>0.647591</v>
+        <v>0.64759100000000003</v>
       </c>
       <c r="H42" s="12">
-        <v>1.06702324930744</v>
+        <v>1.0670232493074401</v>
       </c>
       <c r="I42" s="12">
-        <v>1.04790937798586</v>
+        <v>1.0479093779858599</v>
       </c>
       <c r="J42" s="12">
-        <v>1.113357</v>
+        <v>1.1133569999999999</v>
       </c>
       <c r="K42" s="12">
         <v>1.1047904706023</v>
       </c>
       <c r="L42" s="12">
-        <v>1.2134948</v>
+        <v>1.2134948000000001</v>
       </c>
       <c r="M42" s="12">
-        <v>0.818433154032589</v>
+        <v>0.81843315403258898</v>
       </c>
       <c r="N42" s="12">
-        <v>0.89296567440033</v>
+        <v>0.89296567440033003</v>
       </c>
       <c r="O42" s="12">
-        <v>1.074216</v>
+        <v>1.0742160000000001</v>
       </c>
       <c r="P42" s="12">
         <v>1.447208</v>
@@ -3403,7 +3446,7 @@
       <c r="Y42" s="12"/>
       <c r="Z42" s="12"/>
     </row>
-    <row r="43" ht="15.6" customHeight="1">
+    <row r="43" spans="1:26" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="7" cm="1">
         <f t="array" ref="A43">DATE(YEAR(A44),MONTH(A44)-3,1)</f>
         <v>42887</v>
@@ -3412,37 +3455,37 @@
         <v>0.8</v>
       </c>
       <c r="C43" s="11">
-        <v>0.508360779597247</v>
+        <v>0.50836077959724701</v>
       </c>
       <c r="D43" s="12">
         <v>1.108525</v>
       </c>
       <c r="E43" s="12">
-        <v>1.126052</v>
+        <v>1.1260520000000001</v>
       </c>
       <c r="F43" s="12">
         <v>1.015314</v>
       </c>
       <c r="G43" s="12">
-        <v>0.689279</v>
+        <v>0.68927899999999998</v>
       </c>
       <c r="H43" s="12">
         <v>0.932465718951488</v>
       </c>
       <c r="I43" s="12">
-        <v>0.944883916227629</v>
+        <v>0.94488391622762902</v>
       </c>
       <c r="J43" s="12">
-        <v>0.786986</v>
+        <v>0.78698599999999996</v>
       </c>
       <c r="K43" s="12">
-        <v>1.02963283849532</v>
+        <v>1.0296328384953199</v>
       </c>
       <c r="L43" s="12">
-        <v>0.7923372400000001</v>
+        <v>0.79233724000000005</v>
       </c>
       <c r="M43" s="12">
-        <v>0.7949831378101</v>
+        <v>0.79498313781009999</v>
       </c>
       <c r="N43" s="12">
         <v>1.19161152839661</v>
@@ -3464,7 +3507,7 @@
       <c r="Y43" s="12"/>
       <c r="Z43" s="12"/>
     </row>
-    <row r="44" ht="15.6" customHeight="1">
+    <row r="44" spans="1:26" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="7" cm="1">
         <f t="array" ref="A44">DATE(YEAR(A45),MONTH(A45)-3,1)</f>
         <v>42979</v>
@@ -3473,46 +3516,46 @@
         <v>1.4</v>
       </c>
       <c r="C44" s="11">
-        <v>0.737805320187607</v>
+        <v>0.73780532018760703</v>
       </c>
       <c r="D44" s="12">
-        <v>0.287701</v>
+        <v>0.28770099999999998</v>
       </c>
       <c r="E44" s="12">
-        <v>0.275753</v>
+        <v>0.27575300000000003</v>
       </c>
       <c r="F44" s="12">
-        <v>0.399241</v>
+        <v>0.39924100000000001</v>
       </c>
       <c r="G44" s="12">
-        <v>0.969641</v>
+        <v>0.96964099999999998</v>
       </c>
       <c r="H44" s="12">
         <v>0.743458949658657</v>
       </c>
       <c r="I44" s="12">
-        <v>0.834732301196039</v>
+        <v>0.83473230119603903</v>
       </c>
       <c r="J44" s="12">
-        <v>0.960132</v>
+        <v>0.96013199999999999</v>
       </c>
       <c r="K44" s="12">
-        <v>0.9213298877257829</v>
+        <v>0.92132988772578295</v>
       </c>
       <c r="L44" s="12">
-        <v>0.6759019000000001</v>
+        <v>0.67590190000000006</v>
       </c>
       <c r="M44" s="12">
-        <v>0.80045130359995</v>
+        <v>0.80045130359994998</v>
       </c>
       <c r="N44" s="12">
-        <v>0.879962086677551</v>
+        <v>0.87996208667755105</v>
       </c>
       <c r="O44" s="12">
-        <v>0.712376</v>
+        <v>0.71237600000000001</v>
       </c>
       <c r="P44" s="12">
-        <v>0.9738019999999999</v>
+        <v>0.97380199999999995</v>
       </c>
       <c r="Q44" s="12"/>
       <c r="R44" s="6"/>
@@ -3525,7 +3568,7 @@
       <c r="Y44" s="12"/>
       <c r="Z44" s="12"/>
     </row>
-    <row r="45" ht="15.6" customHeight="1">
+    <row r="45" spans="1:26" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="7" cm="1">
         <f t="array" ref="A45">DATE(YEAR(A46),MONTH(A46)-3,1)</f>
         <v>43070</v>
@@ -3534,16 +3577,16 @@
         <v>-0.3</v>
       </c>
       <c r="C45" s="11">
-        <v>0.7100968862729991</v>
+        <v>0.71009688627299905</v>
       </c>
       <c r="D45" s="12">
-        <v>0.952379</v>
+        <v>0.95237899999999998</v>
       </c>
       <c r="E45" s="12">
-        <v>0.673771</v>
+        <v>0.67377100000000001</v>
       </c>
       <c r="F45" s="12">
-        <v>0.895778</v>
+        <v>0.89577799999999996</v>
       </c>
       <c r="G45" s="12">
         <v>1.387553</v>
@@ -3555,25 +3598,25 @@
         <v>0.894160425082557</v>
       </c>
       <c r="J45" s="12">
-        <v>0.694095</v>
+        <v>0.69409500000000002</v>
       </c>
       <c r="K45" s="12">
         <v>0.512125292734122</v>
       </c>
       <c r="L45" s="12">
-        <v>0.71935225</v>
+        <v>0.71935225000000003</v>
       </c>
       <c r="M45" s="12">
         <v>0.743252139180265</v>
       </c>
       <c r="N45" s="12">
-        <v>0.798802018165588</v>
+        <v>0.79880201816558805</v>
       </c>
       <c r="O45" s="12">
-        <v>0.354928</v>
+        <v>0.35492800000000002</v>
       </c>
       <c r="P45" s="12">
-        <v>0.478414</v>
+        <v>0.47841400000000001</v>
       </c>
       <c r="Q45" s="12"/>
       <c r="R45" s="6"/>
@@ -3586,7 +3629,7 @@
       <c r="Y45" s="12"/>
       <c r="Z45" s="12"/>
     </row>
-    <row r="46" ht="15.6" customHeight="1">
+    <row r="46" spans="1:26" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="7" cm="1">
         <f t="array" ref="A46">DATE(YEAR(A47),MONTH(A47)-3,1)</f>
         <v>43160</v>
@@ -3595,31 +3638,31 @@
         <v>1.3</v>
       </c>
       <c r="C46" s="11">
-        <v>1.10799783855798</v>
+        <v>1.1079978385579801</v>
       </c>
       <c r="D46" s="12">
-        <v>0.678722</v>
+        <v>0.67872200000000005</v>
       </c>
       <c r="E46" s="12">
-        <v>0.808093</v>
+        <v>0.80809299999999995</v>
       </c>
       <c r="F46" s="12">
-        <v>0.709687</v>
+        <v>0.70968699999999996</v>
       </c>
       <c r="G46" s="12">
-        <v>0.753485</v>
+        <v>0.75348499999999996</v>
       </c>
       <c r="H46" s="12">
-        <v>0.977526401030947</v>
+        <v>0.97752640103094701</v>
       </c>
       <c r="I46" s="12">
-        <v>1.0054379576792</v>
+        <v>1.0054379576792001</v>
       </c>
       <c r="J46" s="12">
-        <v>0.937068</v>
+        <v>0.93706800000000001</v>
       </c>
       <c r="K46" s="12">
-        <v>1.21409016451621</v>
+        <v>1.2140901645162101</v>
       </c>
       <c r="L46" s="12">
         <v>0.80441034</v>
@@ -3628,10 +3671,10 @@
         <v>1.11177728341795</v>
       </c>
       <c r="N46" s="12">
-        <v>0.712198257446289</v>
+        <v>0.71219825744628895</v>
       </c>
       <c r="O46" s="12">
-        <v>0.744322</v>
+        <v>0.74432200000000004</v>
       </c>
       <c r="P46" s="12">
         <v>1.71661</v>
@@ -3647,7 +3690,7 @@
       <c r="Y46" s="12"/>
       <c r="Z46" s="12"/>
     </row>
-    <row r="47" ht="15.6" customHeight="1">
+    <row r="47" spans="1:26" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="7" cm="1">
         <f t="array" ref="A47">DATE(YEAR(A48),MONTH(A48)-3,1)</f>
         <v>43252</v>
@@ -3659,40 +3702,40 @@
         <v>0.959595843543944</v>
       </c>
       <c r="D47" s="12">
-        <v>0.7113429999999999</v>
+        <v>0.71134299999999995</v>
       </c>
       <c r="E47" s="12">
-        <v>0.552336</v>
+        <v>0.55233600000000005</v>
       </c>
       <c r="F47" s="12">
-        <v>0.701288</v>
+        <v>0.70128800000000002</v>
       </c>
       <c r="G47" s="12">
-        <v>0.31626</v>
+        <v>0.31625999999999999</v>
       </c>
       <c r="H47" s="12">
-        <v>0.566791469184864</v>
+        <v>0.56679146918486401</v>
       </c>
       <c r="I47" s="12">
-        <v>0.54893017203459</v>
+        <v>0.54893017203459005</v>
       </c>
       <c r="J47" s="12">
-        <v>0.837201</v>
+        <v>0.83720099999999997</v>
       </c>
       <c r="K47" s="12">
-        <v>0.577262267244009</v>
+        <v>0.57726226724400898</v>
       </c>
       <c r="L47" s="12">
-        <v>0.6337409000000001</v>
+        <v>0.63374090000000005</v>
       </c>
       <c r="M47" s="12">
-        <v>0.499958400277451</v>
+        <v>0.49995840027745098</v>
       </c>
       <c r="N47" s="12">
         <v>1.31321680545807</v>
       </c>
       <c r="O47" s="12">
-        <v>0.687899</v>
+        <v>0.68789900000000004</v>
       </c>
       <c r="P47" s="12">
         <v>0.596387</v>
@@ -3708,7 +3751,7 @@
       <c r="Y47" s="12"/>
       <c r="Z47" s="12"/>
     </row>
-    <row r="48" ht="15.6" customHeight="1">
+    <row r="48" spans="1:26" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="7" cm="1">
         <f t="array" ref="A48">DATE(YEAR(A49),MONTH(A49)-3,1)</f>
         <v>43344</v>
@@ -3717,43 +3760,43 @@
         <v>0.6</v>
       </c>
       <c r="C48" s="11">
-        <v>0.971097392627802</v>
+        <v>0.97109739262780204</v>
       </c>
       <c r="D48" s="12">
-        <v>0.523688</v>
+        <v>0.52368800000000004</v>
       </c>
       <c r="E48" s="12">
-        <v>0.475666</v>
+        <v>0.47566599999999998</v>
       </c>
       <c r="F48" s="12">
-        <v>0.571424</v>
+        <v>0.57142400000000004</v>
       </c>
       <c r="G48" s="12">
-        <v>0.361778</v>
+        <v>0.36177799999999999</v>
       </c>
       <c r="H48" s="12">
-        <v>1.0800162974086</v>
+        <v>1.0800162974086001</v>
       </c>
       <c r="I48" s="12">
-        <v>1.04576878418998</v>
+        <v>1.0457687841899801</v>
       </c>
       <c r="J48" s="12">
         <v>0.701816</v>
       </c>
       <c r="K48" s="12">
-        <v>0.6042563609702259</v>
+        <v>0.60425636097022595</v>
       </c>
       <c r="L48" s="12">
-        <v>0.34749293</v>
+        <v>0.34749292999999998</v>
       </c>
       <c r="M48" s="12">
-        <v>0.580756299070495</v>
+        <v>0.58075629907049497</v>
       </c>
       <c r="N48" s="12">
-        <v>0.685457348823547</v>
+        <v>0.68545734882354703</v>
       </c>
       <c r="O48" s="12">
-        <v>0.679213</v>
+        <v>0.67921299999999996</v>
       </c>
       <c r="P48" s="12">
         <v>0.320519</v>
@@ -3769,7 +3812,7 @@
       <c r="Y48" s="12"/>
       <c r="Z48" s="12"/>
     </row>
-    <row r="49" ht="15.6" customHeight="1">
+    <row r="49" spans="1:26" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="7" cm="1">
         <f t="array" ref="A49">DATE(YEAR(A50),MONTH(A50)-3,1)</f>
         <v>43435</v>
@@ -3781,43 +3824,43 @@
         <v>0.265891526319186</v>
       </c>
       <c r="D49" s="12">
-        <v>0.09694</v>
+        <v>9.6939999999999998E-2</v>
       </c>
       <c r="E49" s="12">
-        <v>-0.02169</v>
+        <v>-2.1690000000000001E-2</v>
       </c>
       <c r="F49" s="12">
         <v>0.245889</v>
       </c>
       <c r="G49" s="12">
-        <v>0.749574</v>
+        <v>0.74957399999999996</v>
       </c>
       <c r="H49" s="12">
-        <v>0.3510327405799</v>
+        <v>0.35103274057990003</v>
       </c>
       <c r="I49" s="12">
-        <v>0.661246054498108</v>
+        <v>0.66124605449810803</v>
       </c>
       <c r="J49" s="12">
-        <v>0.703083</v>
+        <v>0.70308300000000001</v>
       </c>
       <c r="K49" s="12">
-        <v>0.453118278413854</v>
+        <v>0.45311827841385399</v>
       </c>
       <c r="L49" s="12">
-        <v>0.056084156</v>
+        <v>5.6084156000000003E-2</v>
       </c>
       <c r="M49" s="12">
         <v>1.13997128534655</v>
       </c>
       <c r="N49" s="12">
-        <v>0.725483596324921</v>
+        <v>0.72548359632492099</v>
       </c>
       <c r="O49" s="12">
-        <v>0.117679</v>
+        <v>0.11767900000000001</v>
       </c>
       <c r="P49" s="12">
-        <v>0.410747</v>
+        <v>0.41074699999999997</v>
       </c>
       <c r="Q49" s="12"/>
       <c r="R49" s="6"/>
@@ -3830,7 +3873,7 @@
       <c r="Y49" s="12"/>
       <c r="Z49" s="12"/>
     </row>
-    <row r="50" ht="15.6" customHeight="1">
+    <row r="50" spans="1:26" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="7" cm="1">
         <f t="array" ref="A50">DATE(YEAR(A51),MONTH(A51)-3,1)</f>
         <v>43525</v>
@@ -3842,40 +3885,40 @@
         <v>0.118252665541146</v>
       </c>
       <c r="D50" s="12">
-        <v>-0.07226</v>
+        <v>-7.2260000000000005E-2</v>
       </c>
       <c r="E50" s="12">
-        <v>-0.32045</v>
+        <v>-0.32045000000000001</v>
       </c>
       <c r="F50" s="12">
-        <v>0.156505</v>
+        <v>0.15650500000000001</v>
       </c>
       <c r="G50" s="12">
-        <v>0.7563800000000001</v>
+        <v>0.75638000000000005</v>
       </c>
       <c r="H50" s="12">
-        <v>0.512555347182457</v>
+        <v>0.51255534718245699</v>
       </c>
       <c r="I50" s="12">
-        <v>0.6062022175652</v>
+        <v>0.60620221756519999</v>
       </c>
       <c r="J50" s="12">
         <v>0.361543</v>
       </c>
       <c r="K50" s="12">
-        <v>-0.08619005098454829</v>
+        <v>-8.6190050984548294E-2</v>
       </c>
       <c r="L50" s="12">
-        <v>0.710923</v>
+        <v>0.71092299999999997</v>
       </c>
       <c r="M50" s="12">
-        <v>0.613335921450046</v>
+        <v>0.61333592145004601</v>
       </c>
       <c r="N50" s="12">
-        <v>0.685736417770386</v>
+        <v>0.68573641777038596</v>
       </c>
       <c r="O50" s="12">
-        <v>-0.567977</v>
+        <v>-0.56797699999999995</v>
       </c>
       <c r="P50" s="12">
         <v>-0.21914</v>
@@ -3891,52 +3934,52 @@
       <c r="Y50" s="12"/>
       <c r="Z50" s="12"/>
     </row>
-    <row r="51" ht="15.6" customHeight="1">
+    <row r="51" spans="1:26" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="7" cm="1">
         <f t="array" ref="A51">DATE(YEAR(A52),MONTH(A52)-3,1)</f>
         <v>43617</v>
       </c>
       <c r="B51" s="8">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C51" s="11">
         <v>1.11156835276165</v>
       </c>
       <c r="D51" s="12">
-        <v>0.854085</v>
+        <v>0.85408499999999998</v>
       </c>
       <c r="E51" s="12">
-        <v>0.837542</v>
+        <v>0.83754200000000001</v>
       </c>
       <c r="F51" s="12">
-        <v>0.803238</v>
+        <v>0.80323800000000001</v>
       </c>
       <c r="G51" s="12">
-        <v>1.254876</v>
+        <v>1.2548760000000001</v>
       </c>
       <c r="H51" s="12">
-        <v>1.04001660074356</v>
+        <v>1.0400166007435601</v>
       </c>
       <c r="I51" s="12">
-        <v>0.99618244694705</v>
+        <v>0.99618244694705005</v>
       </c>
       <c r="J51" s="12">
-        <v>0.880991</v>
+        <v>0.88099099999999997</v>
       </c>
       <c r="K51" s="12">
-        <v>0.872979457369762</v>
+        <v>0.87297945736976201</v>
       </c>
       <c r="L51" s="12">
-        <v>0.5128888</v>
+        <v>0.51288880000000003</v>
       </c>
       <c r="M51" s="12">
-        <v>0.86478390848617</v>
+        <v>0.86478390848617004</v>
       </c>
       <c r="N51" s="12">
         <v>1.30905508995056</v>
       </c>
       <c r="O51" s="12">
-        <v>0.97299</v>
+        <v>0.97299000000000002</v>
       </c>
       <c r="P51" s="12">
         <v>1.066703</v>
@@ -3952,7 +3995,7 @@
       <c r="Y51" s="12"/>
       <c r="Z51" s="12"/>
     </row>
-    <row r="52" ht="15.6" customHeight="1">
+    <row r="52" spans="1:26" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="7" cm="1">
         <f t="array" ref="A52">DATE(YEAR(A53),MONTH(A53)-3,1)</f>
         <v>43709</v>
@@ -3961,13 +4004,13 @@
         <v>0.4</v>
       </c>
       <c r="C52" s="11">
-        <v>0.6998789423915091</v>
+        <v>0.69987894239150905</v>
       </c>
       <c r="D52" s="12">
-        <v>0.44981</v>
+        <v>0.44980999999999999</v>
       </c>
       <c r="E52" s="12">
-        <v>0.351543</v>
+        <v>0.35154299999999999</v>
       </c>
       <c r="F52" s="12">
         <v>0.511463</v>
@@ -3976,13 +4019,13 @@
         <v>1.000116</v>
       </c>
       <c r="H52" s="12">
-        <v>0.478874448953351</v>
+        <v>0.47887444895335102</v>
       </c>
       <c r="I52" s="12">
-        <v>0.664295964973509</v>
+        <v>0.66429596497350896</v>
       </c>
       <c r="J52" s="12">
-        <v>0.680312</v>
+        <v>0.68031200000000003</v>
       </c>
       <c r="K52" s="12">
         <v>0.470158257943808</v>
@@ -3991,16 +4034,16 @@
         <v>1.1893855</v>
       </c>
       <c r="M52" s="12">
-        <v>0.704465344718221</v>
+        <v>0.70446534471822098</v>
       </c>
       <c r="N52" s="12">
-        <v>1.01489472389221</v>
+        <v>1.0148947238922099</v>
       </c>
       <c r="O52" s="12">
-        <v>0.807791</v>
+        <v>0.80779100000000004</v>
       </c>
       <c r="P52" s="12">
-        <v>0.785794</v>
+        <v>0.78579399999999999</v>
       </c>
       <c r="Q52" s="12"/>
       <c r="R52" s="6"/>
@@ -4013,7 +4056,7 @@
       <c r="Y52" s="12"/>
       <c r="Z52" s="12"/>
     </row>
-    <row r="53" ht="15.6" customHeight="1">
+    <row r="53" spans="1:26" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="7" cm="1">
         <f t="array" ref="A53">DATE(YEAR(A54),MONTH(A54)-3,1)</f>
         <v>43800</v>
@@ -4022,46 +4065,46 @@
         <v>1.2</v>
       </c>
       <c r="C53" s="11">
-        <v>0.57590452552404</v>
+        <v>0.57590452552404003</v>
       </c>
       <c r="D53" s="12">
-        <v>0.620985</v>
+        <v>0.62098500000000001</v>
       </c>
       <c r="E53" s="12">
-        <v>0.554677</v>
+        <v>0.55467699999999998</v>
       </c>
       <c r="F53" s="12">
         <v>0.623506</v>
       </c>
       <c r="G53" s="12">
-        <v>0.288789</v>
+        <v>0.28878900000000002</v>
       </c>
       <c r="H53" s="12">
-        <v>0.9755282862489451</v>
+        <v>0.97552828624894505</v>
       </c>
       <c r="I53" s="12">
         <v>1.12461740811634</v>
       </c>
       <c r="J53" s="12">
-        <v>0.852092</v>
+        <v>0.85209199999999996</v>
       </c>
       <c r="K53" s="12">
-        <v>0.897801595474839</v>
+        <v>0.89780159547483895</v>
       </c>
       <c r="L53" s="12">
-        <v>0.87367225</v>
+        <v>0.87367225000000004</v>
       </c>
       <c r="M53" s="12">
-        <v>0.702232498298235</v>
+        <v>0.70223249829823498</v>
       </c>
       <c r="N53" s="12">
-        <v>0.0770208314061165</v>
+        <v>7.7020831406116499E-2</v>
       </c>
       <c r="O53" s="12">
         <v>0.365954</v>
       </c>
       <c r="P53" s="12">
-        <v>0.8675119999999999</v>
+        <v>0.86751199999999995</v>
       </c>
       <c r="Q53" s="12"/>
       <c r="R53" s="6"/>
@@ -4074,7 +4117,7 @@
       <c r="Y53" s="12"/>
       <c r="Z53" s="12"/>
     </row>
-    <row r="54" ht="15.6" customHeight="1">
+    <row r="54" spans="1:26" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="7" cm="1">
         <f t="array" ref="A54">DATE(YEAR(A55),MONTH(A55)-3,1)</f>
         <v>43891</v>
@@ -4083,46 +4126,46 @@
         <v>-1.3</v>
       </c>
       <c r="C54" s="11">
-        <v>-0.0393887480756359</v>
+        <v>-3.9388748075635902E-2</v>
       </c>
       <c r="D54" s="12">
-        <v>-0.00475</v>
+        <v>-4.7499999999999999E-3</v>
       </c>
       <c r="E54" s="12">
-        <v>-0.14661</v>
+        <v>-0.14660999999999999</v>
       </c>
       <c r="F54" s="12">
         <v>0.180169</v>
       </c>
       <c r="G54" s="12">
-        <v>0.279367</v>
+        <v>0.27936699999999998</v>
       </c>
       <c r="H54" s="12">
-        <v>-0.0360161500268297</v>
+        <v>-3.6016150026829702E-2</v>
       </c>
       <c r="I54" s="12">
-        <v>0.624116126451483</v>
+        <v>0.62411612645148296</v>
       </c>
       <c r="J54" s="12">
         <v>0.839619</v>
       </c>
       <c r="K54" s="12">
-        <v>0.231873809035729</v>
+        <v>0.23187380903572899</v>
       </c>
       <c r="L54" s="12">
         <v>-0.72131866</v>
       </c>
       <c r="M54" s="12">
-        <v>0.0574058477895755</v>
+        <v>5.7405847789575498E-2</v>
       </c>
       <c r="N54" s="12">
         <v>0.300211101770401</v>
       </c>
       <c r="O54" s="12">
-        <v>-0.027807</v>
+        <v>-2.7806999999999998E-2</v>
       </c>
       <c r="P54" s="12">
-        <v>0.032603</v>
+        <v>3.2603E-2</v>
       </c>
       <c r="Q54" s="12"/>
       <c r="R54" s="6"/>
@@ -4135,7 +4178,7 @@
       <c r="Y54" s="12"/>
       <c r="Z54" s="12"/>
     </row>
-    <row r="55" ht="15.6" customHeight="1">
+    <row r="55" spans="1:26" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="7" cm="1">
         <f t="array" ref="A55">DATE(YEAR(A56),MONTH(A56)-3,1)</f>
         <v>43983</v>
@@ -4144,43 +4187,43 @@
         <v>-3</v>
       </c>
       <c r="C55" s="11">
-        <v>-0.544982437906434</v>
+        <v>-0.54498243790643397</v>
       </c>
       <c r="D55" s="12">
         <v>-1.25403</v>
       </c>
       <c r="E55" s="12">
-        <v>-1.16121</v>
+        <v>-1.1612100000000001</v>
       </c>
       <c r="F55" s="12">
-        <v>-0.49189</v>
+        <v>-0.49188999999999999</v>
       </c>
       <c r="G55" s="12">
-        <v>-7.82413</v>
+        <v>-7.8241300000000003</v>
       </c>
       <c r="H55" s="12">
-        <v>-0.880848439090303</v>
+        <v>-0.88084843909030297</v>
       </c>
       <c r="I55" s="12">
-        <v>0.253357557036858</v>
+        <v>0.25335755703685803</v>
       </c>
       <c r="J55" s="12">
         <v>-1.4533</v>
       </c>
       <c r="K55" s="12">
-        <v>-0.716909586534083</v>
+        <v>-0.71690958653408299</v>
       </c>
       <c r="L55" s="12">
-        <v>0.39227682</v>
+        <v>0.39227682000000003</v>
       </c>
       <c r="M55" s="12">
-        <v>-0.98489901297098</v>
+        <v>-0.98489901297098004</v>
       </c>
       <c r="N55" s="12">
-        <v>-3.16442632675171</v>
+        <v>-3.1644263267517099</v>
       </c>
       <c r="O55" s="12">
-        <v>-2.598587</v>
+        <v>-2.5985870000000002</v>
       </c>
       <c r="P55" s="12">
         <v>-1.444183</v>
@@ -4196,28 +4239,28 @@
       <c r="Y55" s="12"/>
       <c r="Z55" s="12"/>
     </row>
-    <row r="56" ht="15.6" customHeight="1">
+    <row r="56" spans="1:26" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="7" cm="1">
         <f t="array" ref="A56">DATE(YEAR(A57),MONTH(A57)-3,1)</f>
         <v>44075</v>
       </c>
       <c r="B56" s="8">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="C56" s="11">
         <v>1.60246672756077</v>
       </c>
       <c r="D56" s="12">
-        <v>1.853738</v>
+        <v>1.8537380000000001</v>
       </c>
       <c r="E56" s="12">
-        <v>2.347293</v>
+        <v>2.3472930000000001</v>
       </c>
       <c r="F56" s="12">
-        <v>1.072647</v>
+        <v>1.0726469999999999</v>
       </c>
       <c r="G56" s="12">
-        <v>4.346511</v>
+        <v>4.3465109999999996</v>
       </c>
       <c r="H56" s="12">
         <v>2.42209649954335</v>
@@ -4226,25 +4269,25 @@
         <v>1.65097270109683</v>
       </c>
       <c r="J56" s="12">
-        <v>1.214082</v>
+        <v>1.2140820000000001</v>
       </c>
       <c r="K56" s="12">
-        <v>2.22332623681675</v>
+        <v>2.2233262368167499</v>
       </c>
       <c r="L56" s="12">
-        <v>1.4095113</v>
+        <v>1.4095112999999999</v>
       </c>
       <c r="M56" s="12">
-        <v>0.939491630606378</v>
+        <v>0.93949163060637797</v>
       </c>
       <c r="N56" s="12">
         <v>1.49724900722504</v>
       </c>
       <c r="O56" s="12">
-        <v>0.822904</v>
+        <v>0.82290399999999997</v>
       </c>
       <c r="P56" s="12">
-        <v>2.864797</v>
+        <v>2.8647969999999998</v>
       </c>
       <c r="Q56" s="12"/>
       <c r="R56" s="6"/>
@@ -4257,7 +4300,7 @@
       <c r="Y56" s="12"/>
       <c r="Z56" s="12"/>
     </row>
-    <row r="57" ht="15.6" customHeight="1">
+    <row r="57" spans="1:26" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="7" cm="1">
         <f t="array" ref="A57">DATE(YEAR(A58),MONTH(A58)-3,1)</f>
         <v>44166</v>
@@ -4272,13 +4315,13 @@
         <v>1.517258</v>
       </c>
       <c r="E57" s="12">
-        <v>1.55885</v>
+        <v>1.5588500000000001</v>
       </c>
       <c r="F57" s="12">
-        <v>1.489426</v>
+        <v>1.4894259999999999</v>
       </c>
       <c r="G57" s="12">
-        <v>3.395491</v>
+        <v>3.3954909999999998</v>
       </c>
       <c r="H57" s="12">
         <v>1.86171729420527</v>
@@ -4287,22 +4330,22 @@
         <v>1.27764809867339</v>
       </c>
       <c r="J57" s="12">
-        <v>0.658268</v>
+        <v>0.65826799999999996</v>
       </c>
       <c r="K57" s="12">
-        <v>1.46602995250184</v>
+        <v>1.4660299525018401</v>
       </c>
       <c r="L57" s="12">
-        <v>0.26395336</v>
+        <v>0.26395336000000003</v>
       </c>
       <c r="M57" s="12">
-        <v>0.908889066822858</v>
+        <v>0.90888906682285797</v>
       </c>
       <c r="N57" s="12">
-        <v>1.25528967380524</v>
+        <v>1.2552896738052399</v>
       </c>
       <c r="O57" s="12">
-        <v>1.946373</v>
+        <v>1.9463729999999999</v>
       </c>
       <c r="P57" s="12">
         <v>1.520173</v>
@@ -4318,7 +4361,7 @@
       <c r="Y57" s="12"/>
       <c r="Z57" s="12"/>
     </row>
-    <row r="58" ht="15.6" customHeight="1">
+    <row r="58" spans="1:26" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="7" cm="1">
         <f t="array" ref="A58">DATE(YEAR(A59),MONTH(A59)-3,1)</f>
         <v>44256</v>
@@ -4333,37 +4376,37 @@
         <v>1.135054</v>
       </c>
       <c r="E58" s="12">
-        <v>1.12586</v>
+        <v>1.1258600000000001</v>
       </c>
       <c r="F58" s="12">
-        <v>1.057184</v>
+        <v>1.0571839999999999</v>
       </c>
       <c r="G58" s="12">
-        <v>3.354077</v>
+        <v>3.3540770000000002</v>
       </c>
       <c r="H58" s="12">
         <v>1.7043653697562</v>
       </c>
       <c r="I58" s="12">
-        <v>0.976373749912098</v>
+        <v>0.97637374991209802</v>
       </c>
       <c r="J58" s="12">
         <v>1.226291</v>
       </c>
       <c r="K58" s="12">
-        <v>1.84410188922405</v>
+        <v>1.8441018892240499</v>
       </c>
       <c r="L58" s="12">
         <v>1.3949053</v>
       </c>
       <c r="M58" s="12">
-        <v>0.783784796073719</v>
+        <v>0.78378479607371898</v>
       </c>
       <c r="N58" s="12">
         <v>1.41016113758087</v>
       </c>
       <c r="O58" s="12">
-        <v>1.820096</v>
+        <v>1.8200959999999999</v>
       </c>
       <c r="P58" s="12">
         <v>1.897805</v>
@@ -4379,7 +4422,7 @@
       <c r="Y58" s="12"/>
       <c r="Z58" s="12"/>
     </row>
-    <row r="59" ht="15.6" customHeight="1">
+    <row r="59" spans="1:26" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="7" cm="1">
         <f t="array" ref="A59">DATE(YEAR(A60),MONTH(A60)-3,1)</f>
         <v>44348</v>
@@ -4388,37 +4431,37 @@
         <v>0.9</v>
       </c>
       <c r="C59" s="11">
-        <v>0.796607136181979</v>
+        <v>0.79660713618197898</v>
       </c>
       <c r="D59" s="12">
-        <v>1.053214</v>
+        <v>1.0532140000000001</v>
       </c>
       <c r="E59" s="12">
-        <v>0.916154</v>
+        <v>0.91615400000000002</v>
       </c>
       <c r="F59" s="12">
-        <v>0.939468</v>
+        <v>0.93946799999999997</v>
       </c>
       <c r="G59" s="12">
-        <v>1.657253</v>
+        <v>1.6572530000000001</v>
       </c>
       <c r="H59" s="12">
-        <v>1.97153965322016</v>
+        <v>1.9715396532201599</v>
       </c>
       <c r="I59" s="12">
-        <v>1.17892843737267</v>
+        <v>1.1789284373726701</v>
       </c>
       <c r="J59" s="12">
-        <v>1.311106</v>
+        <v>1.3111060000000001</v>
       </c>
       <c r="K59" s="12">
-        <v>1.06898343034574</v>
+        <v>1.0689834303457399</v>
       </c>
       <c r="L59" s="12">
-        <v>1.5954639</v>
+        <v>1.5954638999999999</v>
       </c>
       <c r="M59" s="12">
-        <v>0.820490071125751</v>
+        <v>0.82049007112575101</v>
       </c>
       <c r="N59" s="12">
         <v>1.31070899963379</v>
@@ -4440,7 +4483,7 @@
       <c r="Y59" s="12"/>
       <c r="Z59" s="12"/>
     </row>
-    <row r="60" ht="15.6" customHeight="1">
+    <row r="60" spans="1:26" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="7" cm="1">
         <f t="array" ref="A60">DATE(YEAR(A61),MONTH(A61)-3,1)</f>
         <v>44440</v>
@@ -4449,46 +4492,46 @@
         <v>0.1</v>
       </c>
       <c r="C60" s="11">
-        <v>1.58321751816522</v>
+        <v>1.5832175181652199</v>
       </c>
       <c r="D60" s="12">
-        <v>0.572086</v>
+        <v>0.57208599999999998</v>
       </c>
       <c r="E60" s="12">
         <v>0.509077</v>
       </c>
       <c r="F60" s="12">
-        <v>0.591745</v>
+        <v>0.59174499999999997</v>
       </c>
       <c r="G60" s="12">
-        <v>-0.08534</v>
+        <v>-8.5339999999999999E-2</v>
       </c>
       <c r="H60" s="12">
-        <v>1.13610755989835</v>
+        <v>1.1361075598983501</v>
       </c>
       <c r="I60" s="12">
-        <v>0.832167663612693</v>
+        <v>0.83216766361269301</v>
       </c>
       <c r="J60" s="12">
-        <v>0.947987</v>
+        <v>0.94798700000000002</v>
       </c>
       <c r="K60" s="12">
         <v>1.0444527374421</v>
       </c>
       <c r="L60" s="12">
-        <v>0.3389696</v>
+        <v>0.33896959999999998</v>
       </c>
       <c r="M60" s="12">
-        <v>0.8600688985906</v>
+        <v>0.86006889859059998</v>
       </c>
       <c r="N60" s="12">
-        <v>0.906019508838654</v>
+        <v>0.90601950883865401</v>
       </c>
       <c r="O60" s="12">
-        <v>0.581938</v>
+        <v>0.58193799999999996</v>
       </c>
       <c r="P60" s="12">
-        <v>1.3136</v>
+        <v>1.3136000000000001</v>
       </c>
       <c r="Q60" s="12"/>
       <c r="R60" s="6"/>
@@ -4501,7 +4544,7 @@
       <c r="Y60" s="12"/>
       <c r="Z60" s="12"/>
     </row>
-    <row r="61" ht="15.6" customHeight="1">
+    <row r="61" spans="1:26" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="7" cm="1">
         <f t="array" ref="A61">DATE(YEAR(A62),MONTH(A62)-3,1)</f>
         <v>44531</v>
@@ -4510,7 +4553,7 @@
         <v>1.4</v>
       </c>
       <c r="C61" s="11">
-        <v>0.670523473673872</v>
+        <v>0.67052347367387199</v>
       </c>
       <c r="D61" s="12">
         <v>1.296681</v>
@@ -4522,34 +4565,34 @@
         <v>1.212161</v>
       </c>
       <c r="G61" s="12">
-        <v>1.260339</v>
+        <v>1.2603390000000001</v>
       </c>
       <c r="H61" s="12">
-        <v>0.573513773976256</v>
+        <v>0.57351377397625602</v>
       </c>
       <c r="I61" s="12">
-        <v>0.720868015515752</v>
+        <v>0.72086801551575197</v>
       </c>
       <c r="J61" s="12">
-        <v>1.695731</v>
+        <v>1.6957310000000001</v>
       </c>
       <c r="K61" s="12">
-        <v>1.31739961187176</v>
+        <v>1.3173996118717599</v>
       </c>
       <c r="L61" s="12">
-        <v>0.67769426</v>
+        <v>0.67769425999999999</v>
       </c>
       <c r="M61" s="12">
-        <v>0.746158122762167</v>
+        <v>0.74615812276216698</v>
       </c>
       <c r="N61" s="12">
-        <v>0.95430064201355</v>
+        <v>0.95430064201355003</v>
       </c>
       <c r="O61" s="12">
-        <v>1.735769</v>
+        <v>1.7357689999999999</v>
       </c>
       <c r="P61" s="12">
-        <v>1.745013</v>
+        <v>1.7450129999999999</v>
       </c>
       <c r="Q61" s="12"/>
       <c r="R61" s="6"/>
@@ -4562,7 +4605,7 @@
       <c r="Y61" s="12"/>
       <c r="Z61" s="12"/>
     </row>
-    <row r="62" ht="15.6" customHeight="1">
+    <row r="62" spans="1:26" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="7" cm="1">
         <f t="array" ref="A62">DATE(YEAR(A63),MONTH(A63)-3,1)</f>
         <v>44621</v>
@@ -4574,43 +4617,43 @@
         <v>1.23484862610723</v>
       </c>
       <c r="D62" s="12">
-        <v>0.844207</v>
+        <v>0.84420700000000004</v>
       </c>
       <c r="E62" s="12">
-        <v>0.836529</v>
+        <v>0.83652899999999997</v>
       </c>
       <c r="F62" s="12">
-        <v>0.8766699999999999</v>
+        <v>0.87666999999999995</v>
       </c>
       <c r="G62" s="12">
-        <v>0.97516</v>
+        <v>0.97516000000000003</v>
       </c>
       <c r="H62" s="12">
-        <v>0.869855594816955</v>
+        <v>0.86985559481695496</v>
       </c>
       <c r="I62" s="12">
-        <v>0.865386756680136</v>
+        <v>0.86538675668013598</v>
       </c>
       <c r="J62" s="12">
         <v>1.517371</v>
       </c>
       <c r="K62" s="12">
-        <v>0.707758482027202</v>
+        <v>0.70775848202720204</v>
       </c>
       <c r="L62" s="12">
-        <v>0.31368905</v>
+        <v>0.31368905000000002</v>
       </c>
       <c r="M62" s="12">
-        <v>0.719861657381175</v>
+        <v>0.71986165738117502</v>
       </c>
       <c r="N62" s="12">
-        <v>0.9226475954055789</v>
+        <v>0.92264759540557895</v>
       </c>
       <c r="O62" s="12">
-        <v>0.893021</v>
+        <v>0.89302099999999995</v>
       </c>
       <c r="P62" s="12">
-        <v>0.958533</v>
+        <v>0.95853299999999997</v>
       </c>
       <c r="Q62" s="12"/>
       <c r="R62" s="6"/>
@@ -4623,7 +4666,7 @@
       <c r="Y62" s="12"/>
       <c r="Z62" s="12"/>
     </row>
-    <row r="63" ht="15.6" customHeight="1">
+    <row r="63" spans="1:26" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="7" cm="1">
         <f t="array" ref="A63">DATE(YEAR(A64),MONTH(A64)-3,1)</f>
         <v>44713</v>
@@ -4632,13 +4675,13 @@
         <v>0.8</v>
       </c>
       <c r="C63" s="11">
-        <v>0.383136012791175</v>
+        <v>0.38313601279117498</v>
       </c>
       <c r="D63" s="12">
-        <v>0.373763</v>
+        <v>0.37376300000000001</v>
       </c>
       <c r="E63" s="12">
-        <v>0.39195</v>
+        <v>0.39195000000000002</v>
       </c>
       <c r="F63" s="12">
         <v>0.449743</v>
@@ -4647,31 +4690,31 @@
         <v>1.116168</v>
       </c>
       <c r="H63" s="12">
-        <v>0.759941990429723</v>
+        <v>0.75994199042972299</v>
       </c>
       <c r="I63" s="12">
-        <v>0.882830359263547</v>
+        <v>0.88283035926354703</v>
       </c>
       <c r="J63" s="12">
-        <v>1.272369</v>
+        <v>1.2723690000000001</v>
       </c>
       <c r="K63" s="12">
-        <v>0.483481059705838</v>
+        <v>0.48348105970583799</v>
       </c>
       <c r="L63" s="12">
-        <v>0.71954453</v>
+        <v>0.71954452999999996</v>
       </c>
       <c r="M63" s="12">
-        <v>0.185676910546495</v>
+        <v>0.18567691054649499</v>
       </c>
       <c r="N63" s="12">
-        <v>0.634784042835236</v>
+        <v>0.63478404283523604</v>
       </c>
       <c r="O63" s="12">
-        <v>0.268611</v>
+        <v>0.26861099999999999</v>
       </c>
       <c r="P63" s="12">
-        <v>0.569141</v>
+        <v>0.56914100000000001</v>
       </c>
       <c r="Q63" s="12"/>
       <c r="R63" s="6"/>
@@ -4684,7 +4727,7 @@
       <c r="Y63" s="12"/>
       <c r="Z63" s="12"/>
     </row>
-    <row r="64" ht="15.6" customHeight="1">
+    <row r="64" spans="1:26" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="7" cm="1">
         <f t="array" ref="A64">DATE(YEAR(A65),MONTH(A65)-3,1)</f>
         <v>44805</v>
@@ -4693,22 +4736,22 @@
         <v>0.2</v>
       </c>
       <c r="C64" s="11">
-        <v>-0.0351820861485255</v>
+        <v>-3.5182086148525499E-2</v>
       </c>
       <c r="D64" s="12">
-        <v>0.199928</v>
+        <v>0.19992799999999999</v>
       </c>
       <c r="E64" s="12">
-        <v>0.09525400000000001</v>
+        <v>9.5254000000000005E-2</v>
       </c>
       <c r="F64" s="12">
-        <v>0.340619</v>
+        <v>0.34061900000000001</v>
       </c>
       <c r="G64" s="12">
-        <v>1.04117</v>
+        <v>1.0411699999999999</v>
       </c>
       <c r="H64" s="12">
-        <v>0.289937769275357</v>
+        <v>0.28993776927535703</v>
       </c>
       <c r="I64" s="12">
         <v>0.422397806308413</v>
@@ -4717,22 +4760,22 @@
         <v>0.873112</v>
       </c>
       <c r="K64" s="12">
-        <v>0.6200469423216149</v>
+        <v>0.62004694232161495</v>
       </c>
       <c r="L64" s="12">
-        <v>0.6846134699999999</v>
+        <v>0.68461346999999995</v>
       </c>
       <c r="M64" s="12">
-        <v>0.102861034699738</v>
+        <v>0.10286103469973799</v>
       </c>
       <c r="N64" s="12">
-        <v>0.640976250171661</v>
+        <v>0.64097625017166104</v>
       </c>
       <c r="O64" s="12">
-        <v>0.588907</v>
+        <v>0.58890699999999996</v>
       </c>
       <c r="P64" s="12">
-        <v>0.596038</v>
+        <v>0.59603799999999996</v>
       </c>
       <c r="Q64" s="12"/>
       <c r="R64" s="6"/>
@@ -4745,7 +4788,7 @@
       <c r="Y64" s="12"/>
       <c r="Z64" s="12"/>
     </row>
-    <row r="65" ht="15.6" customHeight="1">
+    <row r="65" spans="1:26" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="7" cm="1">
         <f t="array" ref="A65">DATE(YEAR(A66),MONTH(A66)-3,1)</f>
         <v>44896</v>
@@ -4754,46 +4797,46 @@
         <v>-0.3</v>
       </c>
       <c r="C65" s="11">
-        <v>-0.809326583177729</v>
+        <v>-0.80932658317772899</v>
       </c>
       <c r="D65" s="12">
         <v>-0.78486</v>
       </c>
       <c r="E65" s="12">
-        <v>-0.93253</v>
+        <v>-0.93252999999999997</v>
       </c>
       <c r="F65" s="12">
-        <v>-0.55036</v>
+        <v>-0.55035999999999996</v>
       </c>
       <c r="G65" s="12">
-        <v>-0.03764</v>
+        <v>-3.764E-2</v>
       </c>
       <c r="H65" s="12">
-        <v>0.00430738701820665</v>
+        <v>4.3073870182066499E-3</v>
       </c>
       <c r="I65" s="12">
-        <v>0.458855650769433</v>
+        <v>0.45885565076943302</v>
       </c>
       <c r="J65" s="12">
-        <v>-0.43845</v>
+        <v>-0.43845000000000001</v>
       </c>
       <c r="K65" s="12">
-        <v>0.045649433528709</v>
+        <v>4.5649433528709003E-2</v>
       </c>
       <c r="L65" s="12">
-        <v>-0.58131605</v>
+        <v>-0.58131604999999997</v>
       </c>
       <c r="M65" s="12">
         <v>0.154930060308236</v>
       </c>
       <c r="N65" s="12">
-        <v>0.281753331422806</v>
+        <v>0.28175333142280601</v>
       </c>
       <c r="O65" s="12">
         <v>-0.714974</v>
       </c>
       <c r="P65" s="12">
-        <v>-0.435121</v>
+        <v>-0.43512099999999998</v>
       </c>
       <c r="Q65" s="12"/>
       <c r="R65" s="6"/>
@@ -4806,7 +4849,7 @@
       <c r="Y65" s="12"/>
       <c r="Z65" s="12"/>
     </row>
-    <row r="66" ht="15.6" customHeight="1">
+    <row r="66" spans="1:26" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="7" cm="1">
         <f t="array" ref="A66">DATE(YEAR(A67),MONTH(A67)-3,1)</f>
         <v>44986</v>
@@ -4815,16 +4858,16 @@
         <v>0.3</v>
       </c>
       <c r="C66" s="11">
-        <v>0.360300487819128</v>
+        <v>0.36030048781912799</v>
       </c>
       <c r="D66" s="12">
-        <v>0.32618</v>
+        <v>0.32618000000000003</v>
       </c>
       <c r="E66" s="12">
-        <v>0.190789</v>
+        <v>0.19078899999999999</v>
       </c>
       <c r="F66" s="12">
-        <v>0.426876</v>
+        <v>0.42687599999999998</v>
       </c>
       <c r="G66" s="12"/>
       <c r="H66" s="6"/>
@@ -4832,17 +4875,17 @@
         <v>0.4536</v>
       </c>
       <c r="J66" s="12">
-        <v>0.606136</v>
+        <v>0.60613600000000001</v>
       </c>
       <c r="K66" s="12">
-        <v>0.454766638774611</v>
+        <v>0.45476663877461099</v>
       </c>
       <c r="L66" s="12"/>
       <c r="M66" s="12">
-        <v>0.515214470029114</v>
+        <v>0.51521447002911402</v>
       </c>
       <c r="N66" s="12">
-        <v>0.0563243664801121</v>
+        <v>5.6324366480112097E-2</v>
       </c>
       <c r="O66" s="12"/>
       <c r="P66" s="12"/>
@@ -4857,7 +4900,7 @@
       <c r="Y66" s="6"/>
       <c r="Z66" s="12"/>
     </row>
-    <row r="67" ht="15.6" customHeight="1">
+    <row r="67" spans="1:26" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="7" cm="1">
         <f t="array" ref="A67">DATE(YEAR(A68),MONTH(A68)-3,1)</f>
         <v>45078</v>
@@ -4891,7 +4934,7 @@
         <v>0.62</v>
       </c>
       <c r="N67" s="12">
-        <v>1.12</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="O67" s="10">
         <v>0.23</v>
@@ -4910,7 +4953,7 @@
       <c r="Y67" s="6"/>
       <c r="Z67" s="6"/>
     </row>
-    <row r="68" ht="15.6" customHeight="1">
+    <row r="68" spans="1:26" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="7" cm="1">
         <f t="array" ref="A68">DATE(YEAR(A69),MONTH(A69)-3,1)</f>
         <v>45170</v>
@@ -4919,10 +4962,10 @@
         <v>0.6</v>
       </c>
       <c r="C68" s="10">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="D68" s="10">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="E68" s="10">
         <v>0.27</v>
@@ -4963,7 +5006,7 @@
       <c r="Y68" s="6"/>
       <c r="Z68" s="6"/>
     </row>
-    <row r="69" ht="15.6" customHeight="1">
+    <row r="69" spans="1:26" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="7" cm="1">
         <f t="array" ref="A69">DATE(YEAR(A70),MONTH(A70)-3,1)</f>
         <v>45261</v>
@@ -5016,7 +5059,7 @@
       <c r="Y69" s="6"/>
       <c r="Z69" s="6"/>
     </row>
-    <row r="70" ht="15.6" customHeight="1">
+    <row r="70" spans="1:26" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="7">
         <v>45352</v>
       </c>
@@ -5024,7 +5067,7 @@
         <v>1.3</v>
       </c>
       <c r="C70" s="10">
-        <v>0.6899999999999999</v>
+        <v>0.69</v>
       </c>
       <c r="D70" s="10">
         <v>0.7</v>
@@ -5049,7 +5092,7 @@
         <v>0.71</v>
       </c>
       <c r="N70" s="10">
-        <v>0.9399999999999999</v>
+        <v>0.94</v>
       </c>
       <c r="O70" s="10">
         <v>0.83</v>
@@ -5068,39 +5111,10 @@
       <c r="Y70" s="6"/>
       <c r="Z70" s="6"/>
     </row>
-    <row r="71" ht="15.6" customHeight="1">
-      <c r="A71" s="15"/>
-      <c r="B71" s="6"/>
-      <c r="C71" t="s" s="5">
-        <v>15</v>
-      </c>
-      <c r="D71" s="6"/>
-      <c r="E71" s="6"/>
-      <c r="F71" s="6"/>
-      <c r="G71" s="6"/>
-      <c r="H71" s="6"/>
-      <c r="I71" s="6"/>
-      <c r="J71" s="6"/>
-      <c r="K71" s="6"/>
-      <c r="L71" s="6"/>
-      <c r="M71" s="6"/>
-      <c r="N71" s="6"/>
-      <c r="O71" s="6"/>
-      <c r="P71" s="6"/>
-      <c r="Q71" s="6"/>
-      <c r="R71" s="6"/>
-      <c r="S71" s="6"/>
-      <c r="T71" s="6"/>
-      <c r="U71" s="6"/>
-      <c r="V71" s="6"/>
-      <c r="W71" s="6"/>
-      <c r="X71" s="6"/>
-      <c r="Y71" s="6"/>
-      <c r="Z71" s="6"/>
-    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -5108,90 +5122,91 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="5" width="9" style="16" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="16" customWidth="1"/>
+    <col min="1" max="6" width="9" style="15" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
-      <c r="A1" s="17"/>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-    </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-    </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="16"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+    </row>
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+    </row>
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+    </row>
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+    </row>
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+    </row>
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+    </row>
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+    </row>
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+    </row>
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+    </row>
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
